--- a/Proyecto/listado de  controles-multiidioma-completo.xlsx
+++ b/Proyecto/listado de  controles-multiidioma-completo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledua\OneDrive\Documentos\GitHub\Ing_de_software\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juandavid\Desktop\Ing_de_software\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05295FEB-2F19-46E5-9753-64B24854D348}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="411">
   <si>
     <t>admin_index.aspx</t>
   </si>
@@ -1177,12 +1178,93 @@
   </si>
   <si>
     <t>Siguiente</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>perfil.verperfil.aspx</t>
+  </si>
+  <si>
+    <t>('</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>master2</t>
+  </si>
+  <si>
+    <t>L_lenguaje</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>B_entrar</t>
+  </si>
+  <si>
+    <t>L_bienvenido</t>
+  </si>
+  <si>
+    <t>Bienvenidos</t>
+  </si>
+  <si>
+    <t>L_inicio</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>L_contacto</t>
+  </si>
+  <si>
+    <t>BTNsearch</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>L_inicio1</t>
+  </si>
+  <si>
+    <t>L_categoarias1</t>
+  </si>
+  <si>
+    <t>L_contacto2</t>
+  </si>
+  <si>
+    <t>L_registarse1</t>
+  </si>
+  <si>
+    <t>BTNsearch2</t>
+  </si>
+  <si>
+    <t>L_contacto1</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>L_derechos_reservados</t>
+  </si>
+  <si>
+    <t>Todos los derechos reservados  MetapodSoft &amp;#174; 2017</t>
+  </si>
+  <si>
+    <t>.Text=controles["</t>
+  </si>
+  <si>
+    <t>"].ToString();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1192,7 +1274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,6 +1284,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1243,6 +1331,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1522,16 +1616,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F187" sqref="F187"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="5" max="5" width="0.140625" customWidth="1"/>
@@ -1575,7 +1669,9 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1684,9 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1601,7 +1699,9 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1714,9 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1627,7 +1729,9 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1744,9 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1653,7 +1759,9 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1666,7 +1774,9 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1789,9 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>289</v>
       </c>
@@ -1692,7 +1804,9 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>290</v>
       </c>
@@ -1705,7 +1819,9 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>289</v>
       </c>
@@ -1718,7 +1834,9 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1849,9 @@
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1864,9 @@
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1757,7 +1879,9 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1894,9 @@
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,7 +1912,9 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1799,6 +1927,9 @@
       <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1810,6 +1941,9 @@
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1821,6 +1955,9 @@
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
       <c r="F23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1832,6 +1969,9 @@
       <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1843,6 +1983,9 @@
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1854,6 +1997,9 @@
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1865,6 +2011,9 @@
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1876,6 +2025,9 @@
       <c r="C28" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1887,6 +2039,9 @@
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1898,6 +2053,9 @@
       <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1909,6 +2067,9 @@
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1920,6 +2081,9 @@
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1931,6 +2095,9 @@
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1942,6 +2109,9 @@
       <c r="C34" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1956,6 +2126,9 @@
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>57</v>
       </c>
@@ -1967,6 +2140,9 @@
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>59</v>
       </c>
@@ -1978,6 +2154,9 @@
       <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
@@ -1989,6 +2168,9 @@
       <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2000,6 +2182,9 @@
       <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>65</v>
       </c>
@@ -2011,6 +2196,9 @@
       <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>67</v>
       </c>
@@ -2022,6 +2210,9 @@
       <c r="C41" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
       <c r="F41" s="1" t="s">
         <v>59</v>
       </c>
@@ -2033,6 +2224,9 @@
       <c r="C42" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D42" s="7">
+        <v>3</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>70</v>
       </c>
@@ -2044,6 +2238,9 @@
       <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>72</v>
       </c>
@@ -2055,6 +2252,9 @@
       <c r="C44" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>49</v>
       </c>
@@ -2066,6 +2266,9 @@
       <c r="C45" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>308</v>
       </c>
@@ -2077,6 +2280,9 @@
       <c r="C46" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>76</v>
       </c>
@@ -2088,6 +2294,9 @@
       <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
       <c r="F47" s="1" t="s">
         <v>43</v>
       </c>
@@ -2099,6 +2308,9 @@
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D48" s="7">
+        <v>3</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>78</v>
       </c>
@@ -2110,6 +2322,9 @@
       <c r="C49" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D49" s="7">
+        <v>3</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>33</v>
       </c>
@@ -2121,6 +2336,9 @@
       <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="D50" s="7">
+        <v>3</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>80</v>
       </c>
@@ -2132,6 +2350,9 @@
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
       </c>
@@ -2146,6 +2367,9 @@
       <c r="C52" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="D52" s="7">
+        <v>4</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>83</v>
       </c>
@@ -2157,6 +2381,9 @@
       <c r="C53" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D53" s="7">
+        <v>4</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>85</v>
       </c>
@@ -2171,6 +2398,9 @@
       <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="D54" s="7">
+        <v>5</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>88</v>
       </c>
@@ -2182,6 +2412,9 @@
       <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D55" s="7">
+        <v>5</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>90</v>
       </c>
@@ -2196,6 +2429,9 @@
       <c r="C56" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D56" s="7">
+        <v>6</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>93</v>
       </c>
@@ -2207,6 +2443,9 @@
       <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D57" s="7">
+        <v>6</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>95</v>
       </c>
@@ -2218,6 +2457,9 @@
       <c r="C58" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D58" s="7">
+        <v>6</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>97</v>
       </c>
@@ -2229,6 +2471,9 @@
       <c r="C59" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="D59" s="7">
+        <v>6</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>99</v>
       </c>
@@ -2240,6 +2485,9 @@
       <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="D60" s="7">
+        <v>6</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>99</v>
       </c>
@@ -2251,6 +2499,9 @@
       <c r="C61" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="D61" s="7">
+        <v>6</v>
+      </c>
       <c r="F61" s="1" t="s">
         <v>99</v>
       </c>
@@ -2265,6 +2516,9 @@
       <c r="C62" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="D62" s="7">
+        <v>7</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>104</v>
       </c>
@@ -2279,6 +2533,9 @@
       <c r="C63" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="D63" s="7">
+        <v>8</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>107</v>
       </c>
@@ -2290,6 +2547,9 @@
       <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D64" s="7">
+        <v>8</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>109</v>
       </c>
@@ -2301,6 +2561,9 @@
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="D65" s="7">
+        <v>8</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>111</v>
       </c>
@@ -2315,6 +2578,9 @@
       <c r="C66" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D66" s="7">
+        <v>8</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>114</v>
       </c>
@@ -2326,6 +2592,9 @@
       <c r="C67" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="D67" s="7">
+        <v>8</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>116</v>
       </c>
@@ -2337,6 +2606,9 @@
       <c r="C68" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="D68" s="7">
+        <v>8</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>118</v>
       </c>
@@ -2348,6 +2620,9 @@
       <c r="C69" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="D69" s="7">
+        <v>8</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>120</v>
       </c>
@@ -2359,6 +2634,9 @@
       <c r="C70" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="D70" s="7">
+        <v>8</v>
+      </c>
       <c r="F70" s="1" t="s">
         <v>122</v>
       </c>
@@ -2370,6 +2648,9 @@
       <c r="C71" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="D71" s="7">
+        <v>8</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2381,6 +2662,9 @@
       <c r="C72" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="D72" s="7">
+        <v>8</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>126</v>
       </c>
@@ -2392,6 +2676,9 @@
       <c r="C73" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="D73" s="7">
+        <v>8</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>128</v>
       </c>
@@ -2406,6 +2693,9 @@
       <c r="C74" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="D74" s="7">
+        <v>9</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>131</v>
       </c>
@@ -2417,6 +2707,9 @@
       <c r="C75" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="D75" s="7">
+        <v>9</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>133</v>
       </c>
@@ -2428,6 +2721,9 @@
       <c r="C76" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D76" s="7">
+        <v>9</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>135</v>
       </c>
@@ -2439,6 +2735,9 @@
       <c r="C77" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="D77" s="7">
+        <v>9</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>137</v>
       </c>
@@ -2453,6 +2752,9 @@
       <c r="C78" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D78" s="7">
+        <v>10</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>140</v>
       </c>
@@ -2467,6 +2769,9 @@
       <c r="C79" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="D79" s="7">
+        <v>11</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>143</v>
       </c>
@@ -2478,6 +2783,9 @@
       <c r="C80" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="D80" s="7">
+        <v>11</v>
+      </c>
       <c r="F80" s="1" t="s">
         <v>122</v>
       </c>
@@ -2489,6 +2797,9 @@
       <c r="C81" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="D81" s="7">
+        <v>11</v>
+      </c>
       <c r="F81" s="1" t="s">
         <v>146</v>
       </c>
@@ -2503,6 +2814,9 @@
       <c r="C82" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>149</v>
       </c>
@@ -2514,6 +2828,9 @@
       <c r="C83" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="D83" s="7">
+        <v>12</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>149</v>
       </c>
@@ -2525,6 +2842,9 @@
       <c r="C84" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D84" s="7">
+        <v>12</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,6 +2856,9 @@
       <c r="C85" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D85" s="7">
+        <v>12</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>47</v>
       </c>
@@ -2547,6 +2870,9 @@
       <c r="C86" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="D86" s="7">
+        <v>12</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>151</v>
       </c>
@@ -2561,6 +2887,9 @@
       <c r="C87" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="D87" s="7">
+        <v>13</v>
+      </c>
       <c r="F87" s="1" t="s">
         <v>154</v>
       </c>
@@ -2572,6 +2901,9 @@
       <c r="C88" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="D88" s="7">
+        <v>13</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>90</v>
       </c>
@@ -2583,6 +2915,9 @@
       <c r="C89" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="D89" s="7">
+        <v>13</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>157</v>
       </c>
@@ -2594,6 +2929,9 @@
       <c r="C90" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="D90" s="7">
+        <v>13</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>159</v>
       </c>
@@ -2608,6 +2946,9 @@
       <c r="C91" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D91" s="7">
+        <v>14</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>162</v>
       </c>
@@ -2619,6 +2960,9 @@
       <c r="C92" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="D92" s="7">
+        <v>14</v>
+      </c>
       <c r="F92" s="1" t="s">
         <v>164</v>
       </c>
@@ -2630,6 +2974,9 @@
       <c r="C93" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="D93" s="7">
+        <v>14</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>166</v>
       </c>
@@ -2641,6 +2988,9 @@
       <c r="C94" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="D94" s="7">
+        <v>14</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>168</v>
       </c>
@@ -2652,6 +3002,9 @@
       <c r="C95" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="D95" s="7">
+        <v>14</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>170</v>
       </c>
@@ -2663,6 +3016,9 @@
       <c r="C96" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="D96" s="7">
+        <v>14</v>
+      </c>
       <c r="F96" s="1" t="s">
         <v>172</v>
       </c>
@@ -2674,6 +3030,9 @@
       <c r="C97" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="D97" s="7">
+        <v>14</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>174</v>
       </c>
@@ -2685,6 +3044,9 @@
       <c r="C98" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="D98" s="7">
+        <v>14</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>176</v>
       </c>
@@ -2696,6 +3058,9 @@
       <c r="C99" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="D99" s="7">
+        <v>14</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>178</v>
       </c>
@@ -2707,6 +3072,9 @@
       <c r="C100" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D100" s="7">
+        <v>14</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>180</v>
       </c>
@@ -2718,6 +3086,9 @@
       <c r="C101" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="D101" s="7">
+        <v>14</v>
+      </c>
       <c r="F101" s="1" t="s">
         <v>180</v>
       </c>
@@ -2729,6 +3100,9 @@
       <c r="C102" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="D102" s="7">
+        <v>14</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>183</v>
       </c>
@@ -2740,6 +3114,9 @@
       <c r="C103" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="D103" s="7">
+        <v>14</v>
+      </c>
       <c r="F103" s="1" t="s">
         <v>183</v>
       </c>
@@ -2751,6 +3128,9 @@
       <c r="C104" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="D104" s="7">
+        <v>14</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>186</v>
       </c>
@@ -2762,6 +3142,9 @@
       <c r="C105" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="D105" s="7">
+        <v>14</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>186</v>
       </c>
@@ -2773,6 +3156,9 @@
       <c r="C106" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D106" s="7">
+        <v>14</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>189</v>
       </c>
@@ -2784,6 +3170,9 @@
       <c r="C107" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="D107" s="7">
+        <v>14</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>191</v>
       </c>
@@ -2795,6 +3184,9 @@
       <c r="C108" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="D108" s="7">
+        <v>14</v>
+      </c>
       <c r="F108" s="1" t="s">
         <v>122</v>
       </c>
@@ -2806,6 +3198,9 @@
       <c r="C109" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="D109" s="7">
+        <v>14</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>122</v>
       </c>
@@ -2817,6 +3212,9 @@
       <c r="C110" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="D110" s="7">
+        <v>14</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>76</v>
       </c>
@@ -2828,6 +3226,9 @@
       <c r="C111" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="D111" s="7">
+        <v>14</v>
+      </c>
       <c r="F111" s="1" t="s">
         <v>120</v>
       </c>
@@ -2839,6 +3240,9 @@
       <c r="C112" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="D112" s="7">
+        <v>14</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>196</v>
       </c>
@@ -2850,6 +3254,9 @@
       <c r="C113" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="D113" s="7">
+        <v>14</v>
+      </c>
       <c r="F113" s="1" t="s">
         <v>198</v>
       </c>
@@ -2861,6 +3268,9 @@
       <c r="C114" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="D114" s="7">
+        <v>14</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>114</v>
       </c>
@@ -2872,6 +3282,9 @@
       <c r="C115" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="D115" s="7">
+        <v>14</v>
+      </c>
       <c r="F115" s="1" t="s">
         <v>114</v>
       </c>
@@ -2883,6 +3296,9 @@
       <c r="C116" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="D116" s="7">
+        <v>14</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>202</v>
       </c>
@@ -2894,6 +3310,9 @@
       <c r="C117" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="D117" s="7">
+        <v>14</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>204</v>
       </c>
@@ -2903,10 +3322,13 @@
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>160</v>
+        <v>385</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D118" s="7">
+        <v>22</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>205</v>
@@ -2919,6 +3341,9 @@
       <c r="C119" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="D119" s="7">
+        <v>22</v>
+      </c>
       <c r="F119" s="1" t="s">
         <v>207</v>
       </c>
@@ -2930,6 +3355,9 @@
       <c r="C120" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D120" s="7">
+        <v>22</v>
+      </c>
       <c r="F120" s="1" t="s">
         <v>180</v>
       </c>
@@ -2941,6 +3369,9 @@
       <c r="C121" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="D121" s="7">
+        <v>22</v>
+      </c>
       <c r="F121" s="1" t="s">
         <v>186</v>
       </c>
@@ -2952,6 +3383,9 @@
       <c r="C122" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="D122" s="7">
+        <v>22</v>
+      </c>
       <c r="F122" s="1" t="s">
         <v>209</v>
       </c>
@@ -2966,6 +3400,9 @@
       <c r="C123" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="D123" s="7">
+        <v>15</v>
+      </c>
       <c r="F123" s="1" t="s">
         <v>212</v>
       </c>
@@ -2977,6 +3414,9 @@
       <c r="C124" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="D124" s="7">
+        <v>15</v>
+      </c>
       <c r="F124" s="1" t="s">
         <v>214</v>
       </c>
@@ -2988,6 +3428,9 @@
       <c r="C125" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D125" s="7">
+        <v>15</v>
+      </c>
       <c r="F125" s="1" t="s">
         <v>41</v>
       </c>
@@ -2999,6 +3442,9 @@
       <c r="C126" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D126" s="7">
+        <v>15</v>
+      </c>
       <c r="F126" s="1" t="s">
         <v>216</v>
       </c>
@@ -3010,6 +3456,9 @@
       <c r="C127" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="D127" s="7">
+        <v>15</v>
+      </c>
       <c r="F127" s="1" t="s">
         <v>218</v>
       </c>
@@ -3021,6 +3470,9 @@
       <c r="C128" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D128" s="7">
+        <v>15</v>
+      </c>
       <c r="F128" s="1" t="s">
         <v>220</v>
       </c>
@@ -3032,6 +3484,9 @@
       <c r="C129" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="D129" s="7">
+        <v>15</v>
+      </c>
       <c r="F129" s="1" t="s">
         <v>222</v>
       </c>
@@ -3043,6 +3498,9 @@
       <c r="C130" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="D130" s="7">
+        <v>15</v>
+      </c>
       <c r="F130" s="1" t="s">
         <v>224</v>
       </c>
@@ -3054,6 +3512,9 @@
       <c r="C131" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="D131" s="7">
+        <v>15</v>
+      </c>
       <c r="F131" s="1" t="s">
         <v>226</v>
       </c>
@@ -3065,6 +3526,9 @@
       <c r="C132" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="D132" s="7">
+        <v>15</v>
+      </c>
       <c r="F132" s="1" t="s">
         <v>228</v>
       </c>
@@ -3076,6 +3540,9 @@
       <c r="C133" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="D133" s="7">
+        <v>15</v>
+      </c>
       <c r="F133" s="1" t="s">
         <v>159</v>
       </c>
@@ -3090,6 +3557,9 @@
       <c r="C134" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="D134" s="7">
+        <v>16</v>
+      </c>
       <c r="F134" s="1" t="s">
         <v>232</v>
       </c>
@@ -3101,6 +3571,9 @@
       <c r="C135" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="D135" s="7">
+        <v>16</v>
+      </c>
       <c r="F135" s="1" t="s">
         <v>214</v>
       </c>
@@ -3112,6 +3585,9 @@
       <c r="C136" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D136" s="7">
+        <v>16</v>
+      </c>
       <c r="F136" s="1" t="s">
         <v>41</v>
       </c>
@@ -3123,6 +3599,9 @@
       <c r="C137" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D137" s="7">
+        <v>16</v>
+      </c>
       <c r="F137" s="1" t="s">
         <v>216</v>
       </c>
@@ -3134,6 +3613,9 @@
       <c r="C138" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="D138" s="7">
+        <v>16</v>
+      </c>
       <c r="F138" s="1" t="s">
         <v>218</v>
       </c>
@@ -3145,6 +3627,9 @@
       <c r="C139" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D139" s="7">
+        <v>16</v>
+      </c>
       <c r="F139" s="1" t="s">
         <v>220</v>
       </c>
@@ -3156,6 +3641,9 @@
       <c r="C140" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="D140" s="7">
+        <v>16</v>
+      </c>
       <c r="F140" s="1" t="s">
         <v>222</v>
       </c>
@@ -3167,6 +3655,9 @@
       <c r="C141" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="D141" s="7">
+        <v>16</v>
+      </c>
       <c r="F141" s="1" t="s">
         <v>224</v>
       </c>
@@ -3178,6 +3669,9 @@
       <c r="C142" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="D142" s="7">
+        <v>16</v>
+      </c>
       <c r="F142" s="1" t="s">
         <v>226</v>
       </c>
@@ -3189,6 +3683,9 @@
       <c r="C143" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="D143" s="7">
+        <v>16</v>
+      </c>
       <c r="F143" s="1" t="s">
         <v>228</v>
       </c>
@@ -3200,6 +3697,9 @@
       <c r="C144" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="D144" s="7">
+        <v>16</v>
+      </c>
       <c r="F144" s="1" t="s">
         <v>159</v>
       </c>
@@ -3214,6 +3714,9 @@
       <c r="C145" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="D145" s="7">
+        <v>17</v>
+      </c>
       <c r="F145" s="1" t="s">
         <v>235</v>
       </c>
@@ -3225,6 +3728,9 @@
       <c r="C146" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D146" s="7">
+        <v>17</v>
+      </c>
       <c r="F146" s="1" t="s">
         <v>43</v>
       </c>
@@ -3236,6 +3742,9 @@
       <c r="C147" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D147" s="7">
+        <v>17</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>162</v>
       </c>
@@ -3247,6 +3756,9 @@
       <c r="C148" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="D148" s="7">
+        <v>17</v>
+      </c>
       <c r="F148" s="1" t="s">
         <v>237</v>
       </c>
@@ -3258,6 +3770,9 @@
       <c r="C149" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="D149" s="7">
+        <v>17</v>
+      </c>
       <c r="F149" s="1" t="s">
         <v>239</v>
       </c>
@@ -3269,6 +3784,9 @@
       <c r="C150" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="D150" s="7">
+        <v>17</v>
+      </c>
       <c r="F150" s="1" t="s">
         <v>241</v>
       </c>
@@ -3280,6 +3798,9 @@
       <c r="C151" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="D151" s="7">
+        <v>17</v>
+      </c>
       <c r="F151" s="1" t="s">
         <v>243</v>
       </c>
@@ -3291,6 +3812,9 @@
       <c r="C152" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="D152" s="7">
+        <v>17</v>
+      </c>
       <c r="F152" s="1" t="s">
         <v>245</v>
       </c>
@@ -3302,6 +3826,9 @@
       <c r="C153" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="D153" s="7">
+        <v>17</v>
+      </c>
       <c r="F153" s="1" t="s">
         <v>247</v>
       </c>
@@ -3313,6 +3840,9 @@
       <c r="C154" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="D154" s="7">
+        <v>17</v>
+      </c>
       <c r="F154" s="1" t="s">
         <v>249</v>
       </c>
@@ -3324,6 +3854,9 @@
       <c r="C155" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="D155" s="7">
+        <v>17</v>
+      </c>
       <c r="F155" s="1" t="s">
         <v>251</v>
       </c>
@@ -3335,6 +3868,9 @@
       <c r="C156" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="D156" s="7">
+        <v>17</v>
+      </c>
       <c r="F156" s="1" t="s">
         <v>253</v>
       </c>
@@ -3346,6 +3882,9 @@
       <c r="C157" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="D157" s="7">
+        <v>17</v>
+      </c>
       <c r="F157" s="1" t="s">
         <v>255</v>
       </c>
@@ -3357,6 +3896,9 @@
       <c r="C158" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="D158" s="7">
+        <v>17</v>
+      </c>
       <c r="F158" s="1" t="s">
         <v>257</v>
       </c>
@@ -3368,6 +3910,9 @@
       <c r="C159" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D159" s="7">
+        <v>17</v>
+      </c>
       <c r="F159" s="1" t="s">
         <v>41</v>
       </c>
@@ -3379,6 +3924,9 @@
       <c r="C160" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="D160" s="7">
+        <v>17</v>
+      </c>
       <c r="F160" s="1" t="s">
         <v>249</v>
       </c>
@@ -3390,6 +3938,9 @@
       <c r="C161" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="D161" s="7">
+        <v>17</v>
+      </c>
       <c r="F161" s="1" t="s">
         <v>260</v>
       </c>
@@ -3404,6 +3955,9 @@
       <c r="C162" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D162" s="7">
+        <v>18</v>
+      </c>
       <c r="F162" s="1" t="s">
         <v>83</v>
       </c>
@@ -3415,6 +3969,9 @@
       <c r="C163" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="D163" s="7">
+        <v>18</v>
+      </c>
       <c r="F163" s="1" t="s">
         <v>85</v>
       </c>
@@ -3429,6 +3986,9 @@
       <c r="C164" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="D164" s="7">
+        <v>19</v>
+      </c>
       <c r="F164" s="1" t="s">
         <v>264</v>
       </c>
@@ -3440,6 +4000,9 @@
       <c r="C165" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="D165" s="7">
+        <v>19</v>
+      </c>
       <c r="F165" s="1" t="s">
         <v>266</v>
       </c>
@@ -3451,6 +4014,9 @@
       <c r="C166" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="D166" s="7">
+        <v>19</v>
+      </c>
       <c r="F166" s="1" t="s">
         <v>268</v>
       </c>
@@ -3462,6 +4028,9 @@
       <c r="C167" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="D167" s="7">
+        <v>19</v>
+      </c>
       <c r="F167" s="1" t="s">
         <v>266</v>
       </c>
@@ -3473,6 +4042,9 @@
       <c r="C168" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="D168" s="7">
+        <v>19</v>
+      </c>
       <c r="F168" s="1" t="s">
         <v>382</v>
       </c>
@@ -3484,6 +4056,9 @@
       <c r="C169" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="D169" s="7">
+        <v>19</v>
+      </c>
       <c r="F169" s="1" t="s">
         <v>383</v>
       </c>
@@ -3495,6 +4070,9 @@
       <c r="C170" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="D170" s="7">
+        <v>19</v>
+      </c>
       <c r="F170" s="1" t="s">
         <v>93</v>
       </c>
@@ -3506,6 +4084,9 @@
       <c r="C171" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="D171" s="7">
+        <v>19</v>
+      </c>
       <c r="F171" s="1" t="s">
         <v>95</v>
       </c>
@@ -3517,6 +4098,9 @@
       <c r="C172" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="D172" s="7">
+        <v>19</v>
+      </c>
       <c r="F172" s="1" t="s">
         <v>97</v>
       </c>
@@ -3528,6 +4112,9 @@
       <c r="C173" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="D173" s="7">
+        <v>19</v>
+      </c>
       <c r="F173" s="1" t="s">
         <v>99</v>
       </c>
@@ -3539,6 +4126,9 @@
       <c r="C174" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="D174" s="7">
+        <v>19</v>
+      </c>
       <c r="F174" s="1" t="s">
         <v>99</v>
       </c>
@@ -3550,6 +4140,9 @@
       <c r="C175" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="D175" s="7">
+        <v>19</v>
+      </c>
       <c r="F175" s="1" t="s">
         <v>99</v>
       </c>
@@ -3564,6 +4157,9 @@
       <c r="C176" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="D176" s="7">
+        <v>20</v>
+      </c>
       <c r="F176" s="1" t="s">
         <v>235</v>
       </c>
@@ -3575,6 +4171,9 @@
       <c r="C177" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="D177" s="7">
+        <v>20</v>
+      </c>
       <c r="F177" s="1" t="s">
         <v>43</v>
       </c>
@@ -3586,6 +4185,9 @@
       <c r="C178" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D178" s="7">
+        <v>20</v>
+      </c>
       <c r="F178" s="1" t="s">
         <v>162</v>
       </c>
@@ -3597,6 +4199,9 @@
       <c r="C179" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="D179" s="7">
+        <v>20</v>
+      </c>
       <c r="F179" s="1" t="s">
         <v>237</v>
       </c>
@@ -3608,6 +4213,9 @@
       <c r="C180" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="D180" s="7">
+        <v>20</v>
+      </c>
       <c r="F180" s="1" t="s">
         <v>239</v>
       </c>
@@ -3619,6 +4227,9 @@
       <c r="C181" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="D181" s="7">
+        <v>20</v>
+      </c>
       <c r="F181" s="1" t="s">
         <v>241</v>
       </c>
@@ -3630,6 +4241,9 @@
       <c r="C182" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="D182" s="7">
+        <v>20</v>
+      </c>
       <c r="F182" s="1" t="s">
         <v>243</v>
       </c>
@@ -3641,6 +4255,9 @@
       <c r="C183" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="D183" s="7">
+        <v>20</v>
+      </c>
       <c r="F183" s="1" t="s">
         <v>245</v>
       </c>
@@ -3652,6 +4269,9 @@
       <c r="C184" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="D184" s="7">
+        <v>20</v>
+      </c>
       <c r="F184" s="1" t="s">
         <v>247</v>
       </c>
@@ -3663,6 +4283,9 @@
       <c r="C185" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="D185" s="7">
+        <v>20</v>
+      </c>
       <c r="F185" s="1" t="s">
         <v>249</v>
       </c>
@@ -3674,6 +4297,9 @@
       <c r="C186" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="D186" s="7">
+        <v>20</v>
+      </c>
       <c r="F186" s="1" t="s">
         <v>251</v>
       </c>
@@ -3685,6 +4311,9 @@
       <c r="C187" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="D187" s="7">
+        <v>20</v>
+      </c>
       <c r="F187" s="1" t="s">
         <v>253</v>
       </c>
@@ -3696,6 +4325,9 @@
       <c r="C188" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="D188" s="7">
+        <v>20</v>
+      </c>
       <c r="F188" s="1" t="s">
         <v>255</v>
       </c>
@@ -3707,6 +4339,9 @@
       <c r="C189" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="D189" s="7">
+        <v>20</v>
+      </c>
       <c r="F189" s="1" t="s">
         <v>257</v>
       </c>
@@ -3718,6 +4353,9 @@
       <c r="C190" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D190" s="7">
+        <v>20</v>
+      </c>
       <c r="F190" s="1" t="s">
         <v>41</v>
       </c>
@@ -3729,6 +4367,9 @@
       <c r="C191" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="D191" s="7">
+        <v>20</v>
+      </c>
       <c r="F191" s="1" t="s">
         <v>249</v>
       </c>
@@ -3740,6 +4381,9 @@
       <c r="C192" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="D192" s="7">
+        <v>20</v>
+      </c>
       <c r="F192" s="1" t="s">
         <v>260</v>
       </c>
@@ -3754,11 +4398,7672 @@
       <c r="C193" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="D193" s="7">
+        <v>21</v>
+      </c>
       <c r="F193" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D194" s="7">
+        <v>23</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C195" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D195" s="7">
+        <v>23</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D196" s="7">
+        <v>23</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C197" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D197" s="7">
+        <v>23</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C198" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D198" s="7">
+        <v>23</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C199" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D199" s="7">
+        <v>23</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C200" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D200" s="7">
+        <v>23</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D201" s="7">
+        <v>23</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C202" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D202" s="7">
+        <v>23</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C203" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D203" s="7">
+        <v>23</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C204" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D204" s="7">
+        <v>23</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C205" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D205" s="7">
+        <v>23</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C206" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D206" s="7">
+        <v>23</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C207" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D207" s="7">
+        <v>23</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:O193"/>
+  <sheetViews>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="1.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="12" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>384</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>384</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" t="s">
+        <v>384</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>384</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>384</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>384</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>384</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" t="s">
+        <v>384</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>384</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>384</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>384</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>384</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>384</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" t="s">
+        <v>384</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>384</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" t="s">
+        <v>384</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>384</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>384</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>384</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G29" t="s">
+        <v>384</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>384</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G30" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>384</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G31" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G32" t="s">
+        <v>384</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>384</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G33" t="s">
+        <v>384</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>386</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G34" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>384</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>386</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G35" t="s">
+        <v>384</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>384</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G36" t="s">
+        <v>384</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>384</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>386</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G37" t="s">
+        <v>384</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>384</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G38" t="s">
+        <v>384</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>384</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>386</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G40" t="s">
+        <v>384</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>384</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G41" t="s">
+        <v>384</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>386</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G42" t="s">
+        <v>384</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>384</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>384</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>384</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>384</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>384</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>384</v>
+      </c>
+      <c r="J45" s="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>384</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>384</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>384</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>384</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>384</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>384</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>384</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>386</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G51" t="s">
+        <v>384</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" t="s">
+        <v>384</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>384</v>
+      </c>
+      <c r="J52" s="1">
+        <v>4</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>386</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>384</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>386</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" t="s">
+        <v>384</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>386</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" t="s">
+        <v>384</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" t="s">
+        <v>384</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>384</v>
+      </c>
+      <c r="J56" s="1">
+        <v>6</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>386</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
+        <v>384</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" s="1">
+        <v>6</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>386</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>384</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58" s="1">
+        <v>6</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>386</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G59" t="s">
+        <v>384</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>384</v>
+      </c>
+      <c r="J59" s="1">
+        <v>6</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>386</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G60" t="s">
+        <v>384</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>384</v>
+      </c>
+      <c r="J60" s="1">
+        <v>6</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" t="s">
+        <v>384</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" s="1">
+        <v>6</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" t="s">
+        <v>384</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>384</v>
+      </c>
+      <c r="J62" s="1">
+        <v>7</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>386</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G63" t="s">
+        <v>384</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>384</v>
+      </c>
+      <c r="J63" s="1">
+        <v>8</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>386</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G64" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>384</v>
+      </c>
+      <c r="J64" s="1">
+        <v>8</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G65" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>384</v>
+      </c>
+      <c r="J65" s="1">
+        <v>8</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>386</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G66" t="s">
+        <v>384</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>384</v>
+      </c>
+      <c r="J66" s="1">
+        <v>8</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>386</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G67" t="s">
+        <v>384</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>384</v>
+      </c>
+      <c r="J67" s="1">
+        <v>8</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G68" t="s">
+        <v>384</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>384</v>
+      </c>
+      <c r="J68" s="1">
+        <v>8</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G69" t="s">
+        <v>384</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" s="1">
+        <v>8</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G70" t="s">
+        <v>384</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>384</v>
+      </c>
+      <c r="J70" s="1">
+        <v>8</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>386</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" t="s">
+        <v>384</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" s="1">
+        <v>8</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G72" t="s">
+        <v>384</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>384</v>
+      </c>
+      <c r="J72" s="1">
+        <v>8</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G73" t="s">
+        <v>384</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>384</v>
+      </c>
+      <c r="J73" s="1">
+        <v>8</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G74" t="s">
+        <v>384</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>384</v>
+      </c>
+      <c r="J74" s="1">
+        <v>9</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>386</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G75" t="s">
+        <v>384</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>384</v>
+      </c>
+      <c r="J75" s="1">
+        <v>9</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>386</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G76" t="s">
+        <v>384</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>384</v>
+      </c>
+      <c r="J76" s="1">
+        <v>9</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>386</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G77" t="s">
+        <v>384</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>384</v>
+      </c>
+      <c r="J77" s="1">
+        <v>9</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>386</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G78" t="s">
+        <v>384</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>384</v>
+      </c>
+      <c r="J78" s="1">
+        <v>10</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="79" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>386</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G79" t="s">
+        <v>384</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" t="s">
+        <v>384</v>
+      </c>
+      <c r="J79" s="1">
+        <v>11</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O79" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G80" t="s">
+        <v>384</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80" t="s">
+        <v>384</v>
+      </c>
+      <c r="J80" s="1">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O80" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G81" t="s">
+        <v>384</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>384</v>
+      </c>
+      <c r="J81" s="1">
+        <v>11</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="82" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>386</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G82" t="s">
+        <v>384</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>384</v>
+      </c>
+      <c r="J82" s="1">
+        <v>12</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>386</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G83" t="s">
+        <v>384</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>384</v>
+      </c>
+      <c r="J83" s="1">
+        <v>12</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>386</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G84" t="s">
+        <v>384</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>384</v>
+      </c>
+      <c r="J84" s="1">
+        <v>12</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G85" t="s">
+        <v>384</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>384</v>
+      </c>
+      <c r="J85" s="1">
+        <v>12</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86" t="s">
+        <v>384</v>
+      </c>
+      <c r="J86" s="1">
+        <v>12</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L86" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O86" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G87" t="s">
+        <v>384</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>384</v>
+      </c>
+      <c r="J87" s="1">
+        <v>13</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O87" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G88" t="s">
+        <v>384</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>384</v>
+      </c>
+      <c r="J88" s="1">
+        <v>13</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L88" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O88" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>386</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G89" t="s">
+        <v>384</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>384</v>
+      </c>
+      <c r="J89" s="1">
+        <v>13</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>386</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G90" t="s">
+        <v>384</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" s="1">
+        <v>13</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L90" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>386</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>384</v>
+      </c>
+      <c r="J91" s="1">
+        <v>14</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G92" t="s">
+        <v>384</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>384</v>
+      </c>
+      <c r="J92" s="1">
+        <v>14</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L92" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O92" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>386</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G93" t="s">
+        <v>384</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>384</v>
+      </c>
+      <c r="J93" s="1">
+        <v>14</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O93" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>386</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94" t="s">
+        <v>384</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>384</v>
+      </c>
+      <c r="J94" s="1">
+        <v>14</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>386</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G95" t="s">
+        <v>384</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>384</v>
+      </c>
+      <c r="J95" s="1">
+        <v>14</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>386</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G96" t="s">
+        <v>384</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>384</v>
+      </c>
+      <c r="J96" s="1">
+        <v>14</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L96" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O96" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G97" t="s">
+        <v>384</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>384</v>
+      </c>
+      <c r="J97" s="1">
+        <v>14</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O97" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>386</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G98" t="s">
+        <v>384</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>384</v>
+      </c>
+      <c r="J98" s="1">
+        <v>14</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O98" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G99" t="s">
+        <v>384</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>384</v>
+      </c>
+      <c r="J99" s="1">
+        <v>14</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O99" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>386</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G100" t="s">
+        <v>384</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>384</v>
+      </c>
+      <c r="J100" s="1">
+        <v>14</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O100" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G101" t="s">
+        <v>384</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>384</v>
+      </c>
+      <c r="J101" s="1">
+        <v>14</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O101" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>386</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G102" t="s">
+        <v>384</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>384</v>
+      </c>
+      <c r="J102" s="1">
+        <v>14</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L102" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O102" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>386</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G103" t="s">
+        <v>384</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>384</v>
+      </c>
+      <c r="J103" s="1">
+        <v>14</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L103" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O103" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>386</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G104" t="s">
+        <v>384</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>384</v>
+      </c>
+      <c r="J104" s="1">
+        <v>14</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O104" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>386</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" t="s">
+        <v>384</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>384</v>
+      </c>
+      <c r="J105" s="1">
+        <v>14</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L105" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O105" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>386</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G106" t="s">
+        <v>384</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>384</v>
+      </c>
+      <c r="J106" s="1">
+        <v>14</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L106" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O106" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>386</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G107" t="s">
+        <v>384</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>384</v>
+      </c>
+      <c r="J107" s="1">
+        <v>14</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O107" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>386</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G108" t="s">
+        <v>384</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>384</v>
+      </c>
+      <c r="J108" s="1">
+        <v>14</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L108" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O108" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>386</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G109" t="s">
+        <v>384</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>384</v>
+      </c>
+      <c r="J109" s="1">
+        <v>14</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L109" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O109" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>386</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G110" t="s">
+        <v>384</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>384</v>
+      </c>
+      <c r="J110" s="1">
+        <v>14</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N110" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O110" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>386</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G111" t="s">
+        <v>384</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>384</v>
+      </c>
+      <c r="J111" s="1">
+        <v>14</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L111" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O111" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>386</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G112" t="s">
+        <v>384</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>384</v>
+      </c>
+      <c r="J112" s="1">
+        <v>14</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O112" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>386</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G113" t="s">
+        <v>384</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>384</v>
+      </c>
+      <c r="J113" s="1">
+        <v>14</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O113" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>386</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G114" t="s">
+        <v>384</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>384</v>
+      </c>
+      <c r="J114" s="1">
+        <v>14</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L114" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N114" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O114" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>386</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G115" t="s">
+        <v>384</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>384</v>
+      </c>
+      <c r="J115" s="1">
+        <v>14</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O115" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>386</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G116" t="s">
+        <v>384</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>384</v>
+      </c>
+      <c r="J116" s="1">
+        <v>14</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N116" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O116" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>386</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G117" t="s">
+        <v>384</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>384</v>
+      </c>
+      <c r="J117" s="1">
+        <v>14</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>386</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G118" t="s">
+        <v>384</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>384</v>
+      </c>
+      <c r="J118" s="1">
+        <v>22</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>386</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G119" t="s">
+        <v>384</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>384</v>
+      </c>
+      <c r="J119" s="1">
+        <v>22</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O119" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>386</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G120" t="s">
+        <v>384</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>384</v>
+      </c>
+      <c r="J120" s="1">
+        <v>22</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L120" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="121" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G121" t="s">
+        <v>384</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>384</v>
+      </c>
+      <c r="J121" s="1">
+        <v>22</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N121" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O121" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>386</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G122" t="s">
+        <v>384</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>384</v>
+      </c>
+      <c r="J122" s="1">
+        <v>22</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L122" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N122" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O122" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G123" t="s">
+        <v>384</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>384</v>
+      </c>
+      <c r="J123" s="1">
+        <v>15</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L123" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O123" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="124" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>386</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G124" t="s">
+        <v>384</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>384</v>
+      </c>
+      <c r="J124" s="1">
+        <v>15</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N124" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O124" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="125" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>386</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G125" t="s">
+        <v>384</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>384</v>
+      </c>
+      <c r="J125" s="1">
+        <v>15</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L125" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N125" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O125" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>386</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G126" t="s">
+        <v>384</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>384</v>
+      </c>
+      <c r="J126" s="1">
+        <v>15</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L126" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N126" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="127" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>386</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G127" t="s">
+        <v>384</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
+        <v>384</v>
+      </c>
+      <c r="J127" s="1">
+        <v>15</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O127" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>386</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G128" t="s">
+        <v>384</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>384</v>
+      </c>
+      <c r="J128" s="1">
+        <v>15</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O128" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="129" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>386</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G129" t="s">
+        <v>384</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>384</v>
+      </c>
+      <c r="J129" s="1">
+        <v>15</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O129" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="130" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>386</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G130" t="s">
+        <v>384</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130" t="s">
+        <v>384</v>
+      </c>
+      <c r="J130" s="1">
+        <v>15</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N130" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O130" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>386</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G131" t="s">
+        <v>384</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>384</v>
+      </c>
+      <c r="J131" s="1">
+        <v>15</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L131" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N131" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O131" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>386</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G132" t="s">
+        <v>384</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
+        <v>384</v>
+      </c>
+      <c r="J132" s="1">
+        <v>15</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N132" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>386</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G133" t="s">
+        <v>384</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133" t="s">
+        <v>384</v>
+      </c>
+      <c r="J133" s="1">
+        <v>15</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N133" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>386</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G134" t="s">
+        <v>384</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134" t="s">
+        <v>384</v>
+      </c>
+      <c r="J134" s="1">
+        <v>16</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N134" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O134" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>386</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G135" t="s">
+        <v>384</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135" t="s">
+        <v>384</v>
+      </c>
+      <c r="J135" s="1">
+        <v>16</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N135" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O135" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="136" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>386</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G136" t="s">
+        <v>384</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136" t="s">
+        <v>384</v>
+      </c>
+      <c r="J136" s="1">
+        <v>16</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N136" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O136" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>386</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G137" t="s">
+        <v>384</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137" t="s">
+        <v>384</v>
+      </c>
+      <c r="J137" s="1">
+        <v>16</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L137" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N137" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O137" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="138" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>386</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G138" t="s">
+        <v>384</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138" t="s">
+        <v>384</v>
+      </c>
+      <c r="J138" s="1">
+        <v>16</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N138" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O138" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="139" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G139" t="s">
+        <v>384</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139" t="s">
+        <v>384</v>
+      </c>
+      <c r="J139" s="1">
+        <v>16</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L139" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N139" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O139" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>386</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G140" t="s">
+        <v>384</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140" t="s">
+        <v>384</v>
+      </c>
+      <c r="J140" s="1">
+        <v>16</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L140" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O140" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="141" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>386</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G141" t="s">
+        <v>384</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>384</v>
+      </c>
+      <c r="J141" s="1">
+        <v>16</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L141" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N141" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O141" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="142" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>386</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G142" t="s">
+        <v>384</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>384</v>
+      </c>
+      <c r="J142" s="1">
+        <v>16</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="N142" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O142" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="143" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>386</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G143" t="s">
+        <v>384</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>384</v>
+      </c>
+      <c r="J143" s="1">
+        <v>16</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L143" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N143" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G144" t="s">
+        <v>384</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" s="1">
+        <v>16</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N144" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="145" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>386</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G145" t="s">
+        <v>384</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>384</v>
+      </c>
+      <c r="J145" s="1">
+        <v>17</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L145" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N145" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="146" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>386</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G146" t="s">
+        <v>384</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>384</v>
+      </c>
+      <c r="J146" s="1">
+        <v>17</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N146" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O146" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>386</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G147" t="s">
+        <v>384</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>384</v>
+      </c>
+      <c r="J147" s="1">
+        <v>17</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N147" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O147" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>386</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G148" t="s">
+        <v>384</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>384</v>
+      </c>
+      <c r="J148" s="1">
+        <v>17</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L148" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N148" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O148" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>386</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G149" t="s">
+        <v>384</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>384</v>
+      </c>
+      <c r="J149" s="1">
+        <v>17</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L149" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N149" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O149" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="150" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>386</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G150" t="s">
+        <v>384</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>384</v>
+      </c>
+      <c r="J150" s="1">
+        <v>17</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L150" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N150" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O150" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="151" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>386</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G151" t="s">
+        <v>384</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151" t="s">
+        <v>384</v>
+      </c>
+      <c r="J151" s="1">
+        <v>17</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L151" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O151" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="152" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>386</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G152" t="s">
+        <v>384</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152" t="s">
+        <v>384</v>
+      </c>
+      <c r="J152" s="1">
+        <v>17</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N152" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O152" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="153" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>386</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G153" t="s">
+        <v>384</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153" t="s">
+        <v>384</v>
+      </c>
+      <c r="J153" s="1">
+        <v>17</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L153" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N153" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O153" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="154" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>386</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G154" t="s">
+        <v>384</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154" t="s">
+        <v>384</v>
+      </c>
+      <c r="J154" s="1">
+        <v>17</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L154" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N154" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O154" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="155" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>386</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G155" t="s">
+        <v>384</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>384</v>
+      </c>
+      <c r="J155" s="1">
+        <v>17</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L155" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N155" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O155" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="156" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>386</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G156" t="s">
+        <v>384</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156" t="s">
+        <v>384</v>
+      </c>
+      <c r="J156" s="1">
+        <v>17</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N156" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O156" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="157" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>386</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G157" t="s">
+        <v>384</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157" t="s">
+        <v>384</v>
+      </c>
+      <c r="J157" s="1">
+        <v>17</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L157" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N157" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O157" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>386</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G158" t="s">
+        <v>384</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>384</v>
+      </c>
+      <c r="J158" s="1">
+        <v>17</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L158" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N158" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O158" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>386</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G159" t="s">
+        <v>384</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159" t="s">
+        <v>384</v>
+      </c>
+      <c r="J159" s="1">
+        <v>17</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L159" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N159" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O159" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="160" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>386</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G160" t="s">
+        <v>384</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160" t="s">
+        <v>384</v>
+      </c>
+      <c r="J160" s="1">
+        <v>17</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L160" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N160" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O160" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>386</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G161" t="s">
+        <v>384</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>384</v>
+      </c>
+      <c r="J161" s="1">
+        <v>17</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L161" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N161" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O161" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>386</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G162" t="s">
+        <v>384</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+      <c r="I162" t="s">
+        <v>384</v>
+      </c>
+      <c r="J162" s="1">
+        <v>18</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L162" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N162" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O162" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>386</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G163" t="s">
+        <v>384</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>384</v>
+      </c>
+      <c r="J163" s="1">
+        <v>18</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L163" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N163" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O163" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>386</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G164" t="s">
+        <v>384</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>384</v>
+      </c>
+      <c r="J164" s="1">
+        <v>19</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L164" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N164" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O164" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>386</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G165" t="s">
+        <v>384</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>384</v>
+      </c>
+      <c r="J165" s="1">
+        <v>19</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L165" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N165" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O165" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>386</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G166" t="s">
+        <v>384</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166" t="s">
+        <v>384</v>
+      </c>
+      <c r="J166" s="1">
+        <v>19</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L166" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N166" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O166" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>386</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G167" t="s">
+        <v>384</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>384</v>
+      </c>
+      <c r="J167" s="1">
+        <v>19</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L167" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N167" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O167" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>386</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G168" t="s">
+        <v>384</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>384</v>
+      </c>
+      <c r="J168" s="1">
+        <v>19</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L168" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N168" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O168" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>386</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G169" t="s">
+        <v>384</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
+        <v>384</v>
+      </c>
+      <c r="J169" s="1">
+        <v>19</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L169" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N169" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O169" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>386</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G170" t="s">
+        <v>384</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170" t="s">
+        <v>384</v>
+      </c>
+      <c r="J170" s="1">
+        <v>19</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L170" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N170" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O170" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>386</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G171" t="s">
+        <v>384</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>384</v>
+      </c>
+      <c r="J171" s="1">
+        <v>19</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L171" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N171" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O171" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>386</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G172" t="s">
+        <v>384</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172" t="s">
+        <v>384</v>
+      </c>
+      <c r="J172" s="1">
+        <v>19</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L172" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N172" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O172" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>386</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G173" t="s">
+        <v>384</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>384</v>
+      </c>
+      <c r="J173" s="1">
+        <v>19</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L173" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N173" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O173" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>386</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G174" t="s">
+        <v>384</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174" t="s">
+        <v>384</v>
+      </c>
+      <c r="J174" s="1">
+        <v>19</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L174" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N174" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O174" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>386</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G175" t="s">
+        <v>384</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175" t="s">
+        <v>384</v>
+      </c>
+      <c r="J175" s="1">
+        <v>19</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="N175" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O175" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>386</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G176" t="s">
+        <v>384</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176" t="s">
+        <v>384</v>
+      </c>
+      <c r="J176" s="1">
+        <v>20</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L176" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="N176" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O176" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="177" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>386</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G177" t="s">
+        <v>384</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>384</v>
+      </c>
+      <c r="J177" s="1">
+        <v>20</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N177" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O177" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>386</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G178" t="s">
+        <v>384</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178" t="s">
+        <v>384</v>
+      </c>
+      <c r="J178" s="1">
+        <v>20</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N178" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O178" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>386</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G179" t="s">
+        <v>384</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>384</v>
+      </c>
+      <c r="J179" s="1">
+        <v>20</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N179" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O179" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="180" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G180" t="s">
+        <v>384</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>384</v>
+      </c>
+      <c r="J180" s="1">
+        <v>20</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N180" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O180" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="181" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>386</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G181" t="s">
+        <v>384</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>384</v>
+      </c>
+      <c r="J181" s="1">
+        <v>20</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L181" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N181" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O181" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="182" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>386</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G182" t="s">
+        <v>384</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182" t="s">
+        <v>384</v>
+      </c>
+      <c r="J182" s="1">
+        <v>20</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N182" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O182" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="183" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>386</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G183" t="s">
+        <v>384</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183" t="s">
+        <v>384</v>
+      </c>
+      <c r="J183" s="1">
+        <v>20</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N183" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O183" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="184" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>386</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G184" t="s">
+        <v>384</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184" t="s">
+        <v>384</v>
+      </c>
+      <c r="J184" s="1">
+        <v>20</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L184" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N184" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O184" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="185" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>386</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G185" t="s">
+        <v>384</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185" t="s">
+        <v>384</v>
+      </c>
+      <c r="J185" s="1">
+        <v>20</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O185" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="186" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>386</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G186" t="s">
+        <v>384</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>384</v>
+      </c>
+      <c r="J186" s="1">
+        <v>20</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N186" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O186" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="187" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>386</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G187" t="s">
+        <v>384</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+      <c r="I187" t="s">
+        <v>384</v>
+      </c>
+      <c r="J187" s="1">
+        <v>20</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L187" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N187" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O187" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>386</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G188" t="s">
+        <v>384</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188" t="s">
+        <v>384</v>
+      </c>
+      <c r="J188" s="1">
+        <v>20</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L188" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N188" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O188" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="189" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>386</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G189" t="s">
+        <v>384</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189" t="s">
+        <v>384</v>
+      </c>
+      <c r="J189" s="1">
+        <v>20</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L189" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N189" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O189" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>386</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G190" t="s">
+        <v>384</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190" t="s">
+        <v>384</v>
+      </c>
+      <c r="J190" s="1">
+        <v>20</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L190" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N190" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O190" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>386</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G191" t="s">
+        <v>384</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191" t="s">
+        <v>384</v>
+      </c>
+      <c r="J191" s="1">
+        <v>20</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L191" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="N191" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O191" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="192" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>386</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G192" t="s">
+        <v>384</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>384</v>
+      </c>
+      <c r="J192" s="1">
+        <v>20</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L192" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N192" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O192" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="193" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>386</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G193" t="s">
+        <v>384</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193" t="s">
+        <v>384</v>
+      </c>
+      <c r="J193" s="1">
+        <v>21</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L193" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N193" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O193" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>409</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>409</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>409</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/listado de  controles-multiidioma-completo.xlsx
+++ b/Proyecto/listado de  controles-multiidioma-completo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="437">
   <si>
     <t>admin_index.aspx</t>
   </si>
@@ -1259,13 +1259,91 @@
   </si>
   <si>
     <t>"].ToString();</t>
+  </si>
+  <si>
+    <t>L_continuar</t>
+  </si>
+  <si>
+    <t>Pulse el siguiente botón para continuar a la página principal</t>
+  </si>
+  <si>
+    <t>Su contraseña se ha restaurado con éxito! :)</t>
+  </si>
+  <si>
+    <t>L_restaurada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to Home </t>
+  </si>
+  <si>
+    <t>Password restored successfully</t>
+  </si>
+  <si>
+    <t>Push the button to continue</t>
+  </si>
+  <si>
+    <t>L_volver1</t>
+  </si>
+  <si>
+    <t>go back</t>
+  </si>
+  <si>
+    <t>L_denuncias</t>
+  </si>
+  <si>
+    <t>Denuncias</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>L_totalcomentarios</t>
+  </si>
+  <si>
+    <t>master2_2</t>
+  </si>
+  <si>
+    <t>act28/03/18</t>
+  </si>
+  <si>
+    <t>act20/03/18</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Check in</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All rights reserved MetapodSoft </t>
+  </si>
+  <si>
+    <t>pendiente ingresar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,8 +1351,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri "/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,6 +1373,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1337,6 +1432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,13 +1719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C61"/>
+    <sheetView topLeftCell="A201" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="1" customWidth="1"/>
@@ -1633,12 +1735,12 @@
     <col min="8" max="8" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1"/>
       <c r="C1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1646,7 +1748,7 @@
       <c r="C2"/>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1662,7 +1764,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1797,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1812,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1827,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1740,7 +1842,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1857,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,7 +1872,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +1887,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1815,7 +1917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +1947,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1860,7 +1962,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="C17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1977,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1992,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1905,7 +2007,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1923,7 +2025,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1937,7 +2039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="C22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1951,7 +2053,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1965,7 +2067,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="C24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +2081,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,7 +2095,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2007,7 +2109,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2021,7 +2123,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="C28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,7 +2137,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
@@ -2049,7 +2151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
@@ -2063,7 +2165,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="C31" s="1" t="s">
         <v>51</v>
       </c>
@@ -2077,7 +2179,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
@@ -2091,7 +2193,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2105,7 +2207,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="C34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2119,7 +2221,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
@@ -2136,7 +2238,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8">
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
@@ -2150,7 +2252,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8">
       <c r="C37" s="1" t="s">
         <v>60</v>
       </c>
@@ -2164,7 +2266,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8">
       <c r="C38" s="1" t="s">
         <v>62</v>
       </c>
@@ -2178,7 +2280,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8">
       <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
@@ -2192,7 +2294,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8">
       <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
@@ -2206,7 +2308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8">
       <c r="C41" s="1" t="s">
         <v>68</v>
       </c>
@@ -2220,7 +2322,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8">
       <c r="C42" s="1" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8">
       <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +2350,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8">
       <c r="C44" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8">
       <c r="C45" s="1" t="s">
         <v>73</v>
       </c>
@@ -2276,7 +2378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8">
       <c r="C46" s="1" t="s">
         <v>75</v>
       </c>
@@ -2290,7 +2392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8">
       <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
@@ -2304,7 +2406,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8">
       <c r="C48" s="1" t="s">
         <v>77</v>
       </c>
@@ -2318,7 +2420,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="C49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2332,7 +2434,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
@@ -2346,7 +2448,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2360,7 +2462,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8">
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
@@ -2377,7 +2479,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8">
       <c r="C53" s="1" t="s">
         <v>84</v>
       </c>
@@ -2391,7 +2493,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8">
       <c r="B54" s="1" t="s">
         <v>86</v>
       </c>
@@ -2408,7 +2510,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8">
       <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
@@ -2422,7 +2524,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8">
       <c r="B56" s="1" t="s">
         <v>91</v>
       </c>
@@ -2439,7 +2541,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8">
       <c r="C57" s="1" t="s">
         <v>94</v>
       </c>
@@ -2453,7 +2555,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8">
       <c r="C58" s="1" t="s">
         <v>96</v>
       </c>
@@ -2467,7 +2569,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8">
       <c r="C59" s="1" t="s">
         <v>98</v>
       </c>
@@ -2481,7 +2583,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8">
       <c r="C60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2495,7 +2597,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8">
       <c r="C61" s="1" t="s">
         <v>101</v>
       </c>
@@ -2509,7 +2611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8">
       <c r="B62" s="1" t="s">
         <v>102</v>
       </c>
@@ -2526,7 +2628,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8">
       <c r="B63" s="1" t="s">
         <v>105</v>
       </c>
@@ -2543,7 +2645,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8">
       <c r="C64" s="1" t="s">
         <v>108</v>
       </c>
@@ -2557,7 +2659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8">
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
@@ -2574,7 +2676,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8">
       <c r="C66" s="1" t="s">
         <v>113</v>
       </c>
@@ -2588,7 +2690,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8">
       <c r="C67" s="1" t="s">
         <v>115</v>
       </c>
@@ -2602,7 +2704,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8">
       <c r="C68" s="1" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2718,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8">
       <c r="C69" s="1" t="s">
         <v>119</v>
       </c>
@@ -2630,7 +2732,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8">
       <c r="C70" s="1" t="s">
         <v>121</v>
       </c>
@@ -2644,7 +2746,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8">
       <c r="C71" s="1" t="s">
         <v>123</v>
       </c>
@@ -2658,7 +2760,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8">
       <c r="C72" s="1" t="s">
         <v>125</v>
       </c>
@@ -2672,7 +2774,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8">
       <c r="C73" s="1" t="s">
         <v>127</v>
       </c>
@@ -2686,7 +2788,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8">
       <c r="B74" s="1" t="s">
         <v>129</v>
       </c>
@@ -2703,7 +2805,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8">
       <c r="C75" s="1" t="s">
         <v>132</v>
       </c>
@@ -2717,7 +2819,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8">
       <c r="C76" s="1" t="s">
         <v>134</v>
       </c>
@@ -2731,7 +2833,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8">
       <c r="C77" s="1" t="s">
         <v>136</v>
       </c>
@@ -2745,7 +2847,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8">
       <c r="B78" s="1" t="s">
         <v>138</v>
       </c>
@@ -2759,1613 +2861,1613 @@
         <v>140</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="C79" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="7">
+        <v>10</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="C80" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D80" s="7">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D79" s="7">
-        <v>11</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="7">
-        <v>11</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D81" s="7">
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="C82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="7">
+        <v>11</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="C83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="7">
+        <v>11</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+    <row r="84" spans="2:8">
+      <c r="B84" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D84" s="7">
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
+    <row r="85" spans="2:8">
+      <c r="C85" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D83" s="7">
-        <v>12</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D84" s="7">
-        <v>12</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D85" s="7">
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
       <c r="C86" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D86" s="7">
         <v>12</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="C87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="7">
+        <v>12</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="C88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="7">
+        <v>12</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+    <row r="89" spans="2:8">
+      <c r="C89" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="7">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="C90" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D90" s="7">
+        <v>12</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D91" s="7">
         <v>13</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C88" s="1" t="s">
+    <row r="92" spans="2:8">
+      <c r="C92" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D92" s="7">
         <v>13</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C89" s="1" t="s">
+    <row r="93" spans="2:8">
+      <c r="C93" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D93" s="7">
         <v>13</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
+    <row r="94" spans="2:8">
+      <c r="C94" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D94" s="7">
         <v>13</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+    <row r="95" spans="2:8">
+      <c r="C95" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" s="7">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D91" s="7">
-        <v>14</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="7">
-        <v>14</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D93" s="7">
-        <v>14</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="7">
-        <v>14</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D95" s="7">
-        <v>14</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D96" s="7">
         <v>14</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8">
       <c r="C97" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D97" s="7">
         <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8">
       <c r="C98" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D98" s="7">
         <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8">
       <c r="C99" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D99" s="7">
         <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8">
       <c r="C100" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D100" s="7">
         <v>14</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8">
       <c r="C101" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D101" s="7">
         <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8">
       <c r="C102" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D102" s="7">
         <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8">
       <c r="C103" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D103" s="7">
         <v>14</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
       <c r="C104" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D104" s="7">
         <v>14</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8">
       <c r="C105" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D105" s="7">
         <v>14</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
       <c r="C106" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D106" s="7">
         <v>14</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8">
       <c r="C107" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D107" s="7">
         <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
       <c r="C108" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D108" s="7">
         <v>14</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
       <c r="C109" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D109" s="7">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8">
       <c r="C110" s="1" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="D110" s="7">
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8">
       <c r="C111" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D111" s="7">
         <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8">
       <c r="C112" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D112" s="7">
         <v>14</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
       <c r="C113" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D113" s="7">
         <v>14</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
       <c r="C114" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D114" s="7">
         <v>14</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
       <c r="C115" s="1" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="D115" s="7">
         <v>14</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
       <c r="C116" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D116" s="7">
         <v>14</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
       <c r="C117" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D117" s="7">
         <v>14</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="C118" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="7">
+        <v>14</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="C119" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" s="7">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="C120" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" s="7">
+        <v>14</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="C121" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" s="7">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="C122" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="7">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+    <row r="123" spans="2:8">
+      <c r="B123" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D123" s="7">
         <v>22</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C119" s="1" t="s">
+    <row r="124" spans="2:8">
+      <c r="C124" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D124" s="7">
         <v>22</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C120" s="1" t="s">
+    <row r="125" spans="2:8">
+      <c r="C125" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D125" s="7">
         <v>22</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C121" s="1" t="s">
+    <row r="126" spans="2:8">
+      <c r="C126" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D126" s="7">
         <v>22</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
+    <row r="127" spans="2:8">
+      <c r="C127" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D127" s="7">
         <v>22</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
+    <row r="128" spans="2:8">
+      <c r="B128" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D123" s="7">
-        <v>15</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C124" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" s="7">
-        <v>15</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C125" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D125" s="7">
-        <v>15</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C126" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D126" s="7">
-        <v>15</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C127" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D127" s="7">
-        <v>15</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C128" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D128" s="7">
         <v>15</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8">
       <c r="C129" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D129" s="7">
         <v>15</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8">
       <c r="C130" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="D130" s="7">
         <v>15</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8">
       <c r="C131" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D131" s="7">
         <v>15</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8">
       <c r="C132" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D132" s="7">
         <v>15</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8">
       <c r="C133" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D133" s="7">
         <v>15</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="C134" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" s="7">
+        <v>15</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="C135" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D135" s="7">
+        <v>15</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="C136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="7">
+        <v>15</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="C137" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D137" s="7">
+        <v>15</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="C138" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D138" s="7">
+        <v>15</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
+    <row r="139" spans="2:8">
+      <c r="B139" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D134" s="7">
-        <v>16</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C135" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" s="7">
-        <v>16</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D136" s="7">
-        <v>16</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C137" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D137" s="7">
-        <v>16</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C138" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D138" s="7">
-        <v>16</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C139" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D139" s="7">
         <v>16</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8">
       <c r="C140" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D140" s="7">
         <v>16</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8">
       <c r="C141" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="D141" s="7">
         <v>16</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8">
       <c r="C142" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D142" s="7">
         <v>16</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8">
       <c r="C143" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D143" s="7">
         <v>16</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8">
       <c r="C144" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D144" s="7">
         <v>16</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="C145" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D145" s="7">
+        <v>16</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="C146" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D146" s="7">
+        <v>16</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="C147" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="7">
+        <v>16</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="C148" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" s="7">
+        <v>16</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="C149" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D149" s="7">
+        <v>16</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
+    <row r="150" spans="2:8">
+      <c r="B150" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D145" s="7">
-        <v>17</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C146" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D146" s="7">
-        <v>17</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C147" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D147" s="7">
-        <v>17</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C148" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" s="7">
-        <v>17</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C149" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D149" s="7">
-        <v>17</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C150" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D150" s="7">
         <v>17</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8">
       <c r="C151" s="1" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="D151" s="7">
         <v>17</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8">
       <c r="C152" s="1" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="D152" s="7">
         <v>17</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8">
       <c r="C153" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D153" s="7">
         <v>17</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
       <c r="C154" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D154" s="7">
         <v>17</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
       <c r="C155" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D155" s="7">
         <v>17</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8">
       <c r="C156" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D156" s="7">
         <v>17</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
       <c r="C157" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D157" s="7">
         <v>17</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
       <c r="C158" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D158" s="7">
         <v>17</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
       <c r="C159" s="1" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="D159" s="7">
         <v>17</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8">
       <c r="C160" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D160" s="7">
         <v>17</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8">
       <c r="C161" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D161" s="7">
         <v>17</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="C162" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D162" s="7">
+        <v>17</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="C163" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D163" s="7">
+        <v>17</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="C164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="7">
+        <v>17</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="C165" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D165" s="7">
+        <v>17</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="C166" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D166" s="7">
+        <v>17</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="1" t="s">
+    <row r="167" spans="2:8">
+      <c r="C167" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D167" s="7">
+        <v>17</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D168" s="7">
         <v>18</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C163" s="1" t="s">
+    <row r="169" spans="2:8">
+      <c r="C169" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D169" s="7">
         <v>18</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F169" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
+    <row r="170" spans="2:8">
+      <c r="B170" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D164" s="7">
-        <v>19</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C165" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D165" s="7">
-        <v>19</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C166" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D166" s="7">
-        <v>19</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C167" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D167" s="7">
-        <v>19</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C168" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D168" s="7">
-        <v>19</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C169" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="7">
-        <v>19</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C170" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D170" s="7">
         <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
       <c r="C171" s="1" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="D171" s="7">
         <v>19</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8">
       <c r="C172" s="1" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="D172" s="7">
         <v>19</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8">
       <c r="C173" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D173" s="7">
         <v>19</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8">
       <c r="C174" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D174" s="7">
         <v>19</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>99</v>
+        <v>382</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
       <c r="C175" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D175" s="7">
         <v>19</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="C176" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D176" s="7">
+        <v>19</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="C177" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="7">
+        <v>19</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="C178" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D178" s="7">
+        <v>19</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="C179" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D179" s="7">
+        <v>19</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
+    <row r="180" spans="2:8">
+      <c r="C180" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D180" s="7">
+        <v>19</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8">
+      <c r="C181" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D181" s="7">
+        <v>19</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8">
+      <c r="B182" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D176" s="7">
-        <v>20</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C177" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D177" s="7">
-        <v>20</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C178" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D178" s="7">
-        <v>20</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C179" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D179" s="7">
-        <v>20</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C180" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D180" s="7">
-        <v>20</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C181" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D181" s="7">
-        <v>20</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C182" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D182" s="7">
         <v>20</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8">
       <c r="C183" s="1" t="s">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="D183" s="7">
         <v>20</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
       <c r="C184" s="1" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="D184" s="7">
         <v>20</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8">
       <c r="C185" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D185" s="7">
         <v>20</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8">
       <c r="C186" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D186" s="7">
         <v>20</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
       <c r="C187" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D187" s="7">
         <v>20</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
       <c r="C188" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D188" s="7">
         <v>20</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
       <c r="C189" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D189" s="7">
         <v>20</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
       <c r="C190" s="1" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D190" s="7">
         <v>20</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
       <c r="C191" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D191" s="7">
         <v>20</v>
@@ -4374,213 +4476,345 @@
         <v>249</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
       <c r="C192" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D192" s="7">
         <v>20</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
+    <row r="193" spans="2:8">
+      <c r="C193" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" s="7">
+        <v>20</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8">
+      <c r="C194" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D194" s="7">
+        <v>20</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8">
+      <c r="C195" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D195" s="7">
+        <v>20</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8">
+      <c r="C196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="7">
+        <v>20</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8">
+      <c r="C197" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D197" s="7">
+        <v>20</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8">
+      <c r="C198" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D198" s="7">
+        <v>20</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8">
+      <c r="B199" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D193" s="7">
+      <c r="D199" s="7">
         <v>21</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
+    <row r="200" spans="2:8">
+      <c r="B200" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C200" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="D194" s="7">
-        <v>23</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C195" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D195" s="7">
-        <v>23</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C196" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D196" s="7">
-        <v>23</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C197" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D197" s="7">
-        <v>23</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C198" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D198" s="7">
-        <v>23</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C199" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D199" s="7">
-        <v>23</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C200" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="D200" s="7">
         <v>23</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8">
       <c r="C201" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D201" s="7">
         <v>23</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8">
       <c r="C202" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D202" s="7">
         <v>23</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8">
       <c r="C203" s="12" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D203" s="7">
         <v>23</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8">
       <c r="C204" s="12" t="s">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="D204" s="7">
         <v>23</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H204" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8">
       <c r="C205" s="12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D205" s="7">
         <v>23</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H205" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8">
       <c r="C206" s="12" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D206" s="7">
         <v>23</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="H206" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8">
       <c r="C207" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D207" s="7">
         <v>23</v>
       </c>
       <c r="F207" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8">
+      <c r="C208" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D208" s="7">
+        <v>23</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H208" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8">
+      <c r="C209" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D209" s="7">
+        <v>23</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H209" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="C210" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D210" s="7">
+        <v>23</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H210" s="14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="C211" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="D211" s="7">
+        <v>23</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H211" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="C212" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D212" s="7">
+        <v>23</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H212" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8">
+      <c r="C213" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D213" s="7">
+        <v>23</v>
+      </c>
+      <c r="F213" s="1" t="s">
         <v>408</v>
+      </c>
+      <c r="H213" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="B214" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:O193"/>
+  <dimension ref="B4:O212"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="P216" sqref="P216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="1.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" customWidth="1"/>
@@ -4590,7 +4824,10 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
       <c r="D4" t="s">
         <v>386</v>
       </c>
@@ -4628,7 +4865,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="D5" t="s">
         <v>386</v>
       </c>
@@ -4666,7 +4903,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="D6" t="s">
         <v>386</v>
       </c>
@@ -4704,7 +4941,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="D7" t="s">
         <v>386</v>
       </c>
@@ -4742,7 +4979,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="D8" t="s">
         <v>386</v>
       </c>
@@ -4780,7 +5017,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="D9" t="s">
         <v>386</v>
       </c>
@@ -4818,7 +5055,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="D10" t="s">
         <v>386</v>
       </c>
@@ -4856,7 +5093,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="D11" t="s">
         <v>386</v>
       </c>
@@ -4894,7 +5131,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="D12" t="s">
         <v>386</v>
       </c>
@@ -4932,7 +5169,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="D13" t="s">
         <v>386</v>
       </c>
@@ -4970,7 +5207,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="D14" t="s">
         <v>386</v>
       </c>
@@ -5008,7 +5245,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="D15" t="s">
         <v>386</v>
       </c>
@@ -5046,7 +5283,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="D16" t="s">
         <v>386</v>
       </c>
@@ -5084,7 +5321,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15">
       <c r="D17" t="s">
         <v>386</v>
       </c>
@@ -5122,7 +5359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15">
       <c r="D18" t="s">
         <v>386</v>
       </c>
@@ -5160,7 +5397,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15">
       <c r="D19" t="s">
         <v>386</v>
       </c>
@@ -5198,7 +5435,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:15">
       <c r="D20" t="s">
         <v>386</v>
       </c>
@@ -5236,7 +5473,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:15">
       <c r="D21" t="s">
         <v>386</v>
       </c>
@@ -5274,7 +5511,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:15">
       <c r="D22" t="s">
         <v>386</v>
       </c>
@@ -5312,7 +5549,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:15">
       <c r="D23" t="s">
         <v>386</v>
       </c>
@@ -5350,7 +5587,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:15">
       <c r="D24" t="s">
         <v>386</v>
       </c>
@@ -5388,7 +5625,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:15">
       <c r="D25" t="s">
         <v>386</v>
       </c>
@@ -5426,7 +5663,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:15">
       <c r="D26" t="s">
         <v>386</v>
       </c>
@@ -5464,7 +5701,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:15">
       <c r="D27" t="s">
         <v>386</v>
       </c>
@@ -5502,7 +5739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:15">
       <c r="D28" t="s">
         <v>386</v>
       </c>
@@ -5540,7 +5777,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:15">
       <c r="D29" t="s">
         <v>386</v>
       </c>
@@ -5578,7 +5815,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:15">
       <c r="D30" t="s">
         <v>386</v>
       </c>
@@ -5616,7 +5853,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:15">
       <c r="D31" t="s">
         <v>386</v>
       </c>
@@ -5654,7 +5891,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:15">
       <c r="D32" t="s">
         <v>386</v>
       </c>
@@ -5692,7 +5929,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:15">
       <c r="D33" t="s">
         <v>386</v>
       </c>
@@ -5730,7 +5967,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:15">
       <c r="D34" t="s">
         <v>386</v>
       </c>
@@ -5768,7 +6005,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:15">
       <c r="D35" t="s">
         <v>386</v>
       </c>
@@ -5806,7 +6043,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:15">
       <c r="D36" t="s">
         <v>386</v>
       </c>
@@ -5844,7 +6081,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15">
       <c r="D37" t="s">
         <v>386</v>
       </c>
@@ -5882,7 +6119,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15">
       <c r="D38" t="s">
         <v>386</v>
       </c>
@@ -5920,7 +6157,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15">
       <c r="D39" t="s">
         <v>386</v>
       </c>
@@ -5958,7 +6195,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15">
       <c r="D40" t="s">
         <v>386</v>
       </c>
@@ -5996,7 +6233,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15">
       <c r="D41" t="s">
         <v>386</v>
       </c>
@@ -6034,7 +6271,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15">
       <c r="D42" t="s">
         <v>386</v>
       </c>
@@ -6072,7 +6309,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15">
       <c r="D43" t="s">
         <v>386</v>
       </c>
@@ -6110,7 +6347,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15">
       <c r="D44" t="s">
         <v>386</v>
       </c>
@@ -6148,7 +6385,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15">
       <c r="D45" t="s">
         <v>386</v>
       </c>
@@ -6186,7 +6423,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15">
       <c r="D46" t="s">
         <v>386</v>
       </c>
@@ -6224,7 +6461,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:15">
       <c r="D47" t="s">
         <v>386</v>
       </c>
@@ -6262,7 +6499,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:15">
       <c r="D48" t="s">
         <v>386</v>
       </c>
@@ -6300,7 +6537,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15">
       <c r="D49" t="s">
         <v>386</v>
       </c>
@@ -6338,7 +6575,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15">
       <c r="D50" t="s">
         <v>386</v>
       </c>
@@ -6376,7 +6613,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15">
       <c r="D51" t="s">
         <v>386</v>
       </c>
@@ -6414,7 +6651,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15">
       <c r="D52" t="s">
         <v>386</v>
       </c>
@@ -6452,7 +6689,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15">
       <c r="D53" t="s">
         <v>386</v>
       </c>
@@ -6490,7 +6727,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:15">
       <c r="D54" t="s">
         <v>386</v>
       </c>
@@ -6528,7 +6765,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:15">
       <c r="D55" t="s">
         <v>386</v>
       </c>
@@ -6566,7 +6803,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:15">
       <c r="D56" t="s">
         <v>386</v>
       </c>
@@ -6604,7 +6841,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:15">
       <c r="D57" t="s">
         <v>386</v>
       </c>
@@ -6642,7 +6879,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:15">
       <c r="D58" t="s">
         <v>386</v>
       </c>
@@ -6680,7 +6917,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:15">
       <c r="D59" t="s">
         <v>386</v>
       </c>
@@ -6718,7 +6955,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:15">
       <c r="D60" t="s">
         <v>386</v>
       </c>
@@ -6756,7 +6993,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:15">
       <c r="D61" t="s">
         <v>386</v>
       </c>
@@ -6794,7 +7031,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:15">
       <c r="D62" t="s">
         <v>386</v>
       </c>
@@ -6832,7 +7069,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:15">
       <c r="D63" t="s">
         <v>386</v>
       </c>
@@ -6870,7 +7107,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:15">
       <c r="D64" t="s">
         <v>386</v>
       </c>
@@ -6908,7 +7145,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:15">
       <c r="D65" t="s">
         <v>386</v>
       </c>
@@ -6946,7 +7183,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="66" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:15">
       <c r="D66" t="s">
         <v>386</v>
       </c>
@@ -6984,7 +7221,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:15">
       <c r="D67" t="s">
         <v>386</v>
       </c>
@@ -7022,7 +7259,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="68" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:15">
       <c r="D68" t="s">
         <v>386</v>
       </c>
@@ -7060,7 +7297,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="69" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:15">
       <c r="D69" t="s">
         <v>386</v>
       </c>
@@ -7098,7 +7335,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="70" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:15">
       <c r="D70" t="s">
         <v>386</v>
       </c>
@@ -7136,7 +7373,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="71" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:15">
       <c r="D71" t="s">
         <v>386</v>
       </c>
@@ -7174,7 +7411,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="72" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:15">
       <c r="D72" t="s">
         <v>386</v>
       </c>
@@ -7212,7 +7449,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:15">
       <c r="D73" t="s">
         <v>386</v>
       </c>
@@ -7250,7 +7487,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="74" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:15">
       <c r="D74" t="s">
         <v>386</v>
       </c>
@@ -7288,7 +7525,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="75" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:15">
       <c r="D75" t="s">
         <v>386</v>
       </c>
@@ -7326,7 +7563,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:15">
       <c r="D76" t="s">
         <v>386</v>
       </c>
@@ -7364,7 +7601,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="77" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:15">
       <c r="D77" t="s">
         <v>386</v>
       </c>
@@ -7402,7 +7639,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:15">
       <c r="D78" t="s">
         <v>386</v>
       </c>
@@ -7440,7 +7677,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="79" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:15">
       <c r="D79" t="s">
         <v>386</v>
       </c>
@@ -7478,7 +7715,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="80" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:15">
       <c r="D80" t="s">
         <v>386</v>
       </c>
@@ -7516,7 +7753,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:15">
       <c r="D81" t="s">
         <v>386</v>
       </c>
@@ -7554,7 +7791,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:15">
       <c r="D82" t="s">
         <v>386</v>
       </c>
@@ -7592,7 +7829,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:15">
       <c r="D83" t="s">
         <v>386</v>
       </c>
@@ -7630,7 +7867,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:15">
       <c r="D84" t="s">
         <v>386</v>
       </c>
@@ -7668,7 +7905,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:15">
       <c r="D85" t="s">
         <v>386</v>
       </c>
@@ -7706,7 +7943,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:15">
       <c r="D86" t="s">
         <v>386</v>
       </c>
@@ -7744,7 +7981,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:15">
       <c r="D87" t="s">
         <v>386</v>
       </c>
@@ -7782,7 +8019,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:15">
       <c r="D88" t="s">
         <v>386</v>
       </c>
@@ -7820,7 +8057,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:15">
       <c r="D89" t="s">
         <v>386</v>
       </c>
@@ -7858,7 +8095,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:15">
       <c r="D90" t="s">
         <v>386</v>
       </c>
@@ -7896,7 +8133,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:15">
       <c r="D91" t="s">
         <v>386</v>
       </c>
@@ -7934,7 +8171,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:15">
       <c r="D92" t="s">
         <v>386</v>
       </c>
@@ -7972,7 +8209,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:15">
       <c r="D93" t="s">
         <v>386</v>
       </c>
@@ -8010,7 +8247,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:15">
       <c r="D94" t="s">
         <v>386</v>
       </c>
@@ -8048,7 +8285,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:15">
       <c r="D95" t="s">
         <v>386</v>
       </c>
@@ -8086,7 +8323,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:15">
       <c r="D96" t="s">
         <v>386</v>
       </c>
@@ -8124,7 +8361,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:15">
       <c r="D97" t="s">
         <v>386</v>
       </c>
@@ -8162,7 +8399,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:15">
       <c r="D98" t="s">
         <v>386</v>
       </c>
@@ -8200,7 +8437,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:15">
       <c r="D99" t="s">
         <v>386</v>
       </c>
@@ -8238,7 +8475,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:15">
       <c r="D100" t="s">
         <v>386</v>
       </c>
@@ -8276,7 +8513,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:15">
       <c r="D101" t="s">
         <v>386</v>
       </c>
@@ -8314,7 +8551,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:15">
       <c r="D102" t="s">
         <v>386</v>
       </c>
@@ -8352,7 +8589,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:15">
       <c r="D103" t="s">
         <v>386</v>
       </c>
@@ -8390,7 +8627,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:15">
       <c r="D104" t="s">
         <v>386</v>
       </c>
@@ -8428,7 +8665,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:15">
       <c r="D105" t="s">
         <v>386</v>
       </c>
@@ -8466,7 +8703,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:15">
       <c r="D106" t="s">
         <v>386</v>
       </c>
@@ -8504,7 +8741,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:15">
       <c r="D107" t="s">
         <v>386</v>
       </c>
@@ -8542,7 +8779,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:15">
       <c r="D108" t="s">
         <v>386</v>
       </c>
@@ -8580,7 +8817,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:15">
       <c r="D109" t="s">
         <v>386</v>
       </c>
@@ -8618,7 +8855,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:15">
       <c r="D110" t="s">
         <v>386</v>
       </c>
@@ -8656,7 +8893,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:15">
       <c r="D111" t="s">
         <v>386</v>
       </c>
@@ -8694,7 +8931,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:15">
       <c r="D112" t="s">
         <v>386</v>
       </c>
@@ -8732,7 +8969,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:15">
       <c r="D113" t="s">
         <v>386</v>
       </c>
@@ -8770,7 +9007,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:15">
       <c r="D114" t="s">
         <v>386</v>
       </c>
@@ -8808,7 +9045,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:15">
       <c r="D115" t="s">
         <v>386</v>
       </c>
@@ -8846,7 +9083,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:15">
       <c r="D116" t="s">
         <v>386</v>
       </c>
@@ -8884,7 +9121,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:15">
       <c r="D117" t="s">
         <v>386</v>
       </c>
@@ -8922,7 +9159,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:15">
       <c r="D118" t="s">
         <v>386</v>
       </c>
@@ -8960,7 +9197,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:15">
       <c r="D119" t="s">
         <v>386</v>
       </c>
@@ -8998,7 +9235,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:15">
       <c r="D120" t="s">
         <v>386</v>
       </c>
@@ -9036,7 +9273,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="121" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:15">
       <c r="D121" t="s">
         <v>386</v>
       </c>
@@ -9074,7 +9311,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:15">
       <c r="D122" t="s">
         <v>386</v>
       </c>
@@ -9112,7 +9349,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:15">
       <c r="D123" t="s">
         <v>386</v>
       </c>
@@ -9150,7 +9387,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="124" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:15">
       <c r="D124" t="s">
         <v>386</v>
       </c>
@@ -9188,7 +9425,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:15">
       <c r="D125" t="s">
         <v>386</v>
       </c>
@@ -9226,7 +9463,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:15">
       <c r="D126" t="s">
         <v>386</v>
       </c>
@@ -9264,7 +9501,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="127" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:15">
       <c r="D127" t="s">
         <v>386</v>
       </c>
@@ -9302,7 +9539,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:15">
       <c r="D128" t="s">
         <v>386</v>
       </c>
@@ -9340,7 +9577,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:15">
       <c r="D129" t="s">
         <v>386</v>
       </c>
@@ -9378,7 +9615,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:15">
       <c r="D130" t="s">
         <v>386</v>
       </c>
@@ -9416,7 +9653,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:15">
       <c r="D131" t="s">
         <v>386</v>
       </c>
@@ -9454,7 +9691,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="132" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:15">
       <c r="D132" t="s">
         <v>386</v>
       </c>
@@ -9492,7 +9729,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="133" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:15">
       <c r="D133" t="s">
         <v>386</v>
       </c>
@@ -9530,7 +9767,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="134" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:15">
       <c r="D134" t="s">
         <v>386</v>
       </c>
@@ -9568,7 +9805,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:15">
       <c r="D135" t="s">
         <v>386</v>
       </c>
@@ -9606,7 +9843,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="136" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:15">
       <c r="D136" t="s">
         <v>386</v>
       </c>
@@ -9644,7 +9881,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:15">
       <c r="D137" t="s">
         <v>386</v>
       </c>
@@ -9682,7 +9919,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:15">
       <c r="D138" t="s">
         <v>386</v>
       </c>
@@ -9720,7 +9957,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="139" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:15">
       <c r="D139" t="s">
         <v>386</v>
       </c>
@@ -9758,7 +9995,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:15">
       <c r="D140" t="s">
         <v>386</v>
       </c>
@@ -9796,7 +10033,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="141" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:15">
       <c r="D141" t="s">
         <v>386</v>
       </c>
@@ -9834,7 +10071,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:15">
       <c r="D142" t="s">
         <v>386</v>
       </c>
@@ -9872,7 +10109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:15">
       <c r="D143" t="s">
         <v>386</v>
       </c>
@@ -9910,7 +10147,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="144" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:15">
       <c r="D144" t="s">
         <v>386</v>
       </c>
@@ -9948,7 +10185,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="145" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:15">
       <c r="D145" t="s">
         <v>386</v>
       </c>
@@ -9986,7 +10223,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="146" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:15">
       <c r="D146" t="s">
         <v>386</v>
       </c>
@@ -10024,7 +10261,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="147" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:15">
       <c r="D147" t="s">
         <v>386</v>
       </c>
@@ -10062,7 +10299,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="148" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:15">
       <c r="D148" t="s">
         <v>386</v>
       </c>
@@ -10100,7 +10337,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="149" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:15">
       <c r="D149" t="s">
         <v>386</v>
       </c>
@@ -10138,7 +10375,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="150" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:15">
       <c r="D150" t="s">
         <v>386</v>
       </c>
@@ -10176,7 +10413,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="151" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:15">
       <c r="D151" t="s">
         <v>386</v>
       </c>
@@ -10214,7 +10451,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="152" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:15">
       <c r="D152" t="s">
         <v>386</v>
       </c>
@@ -10252,7 +10489,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="153" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:15">
       <c r="D153" t="s">
         <v>386</v>
       </c>
@@ -10290,7 +10527,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="154" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:15">
       <c r="D154" t="s">
         <v>386</v>
       </c>
@@ -10328,7 +10565,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="155" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:15">
       <c r="D155" t="s">
         <v>386</v>
       </c>
@@ -10366,7 +10603,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="156" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:15">
       <c r="D156" t="s">
         <v>386</v>
       </c>
@@ -10404,7 +10641,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="157" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:15">
       <c r="D157" t="s">
         <v>386</v>
       </c>
@@ -10442,7 +10679,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="158" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:15">
       <c r="D158" t="s">
         <v>386</v>
       </c>
@@ -10480,7 +10717,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="159" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:15">
       <c r="D159" t="s">
         <v>386</v>
       </c>
@@ -10518,7 +10755,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="160" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:15">
       <c r="D160" t="s">
         <v>386</v>
       </c>
@@ -10556,7 +10793,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:15">
       <c r="D161" t="s">
         <v>386</v>
       </c>
@@ -10594,7 +10831,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:15">
       <c r="D162" t="s">
         <v>386</v>
       </c>
@@ -10632,7 +10869,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:15">
       <c r="D163" t="s">
         <v>386</v>
       </c>
@@ -10670,7 +10907,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:15">
       <c r="D164" t="s">
         <v>386</v>
       </c>
@@ -10708,7 +10945,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:15">
       <c r="D165" t="s">
         <v>386</v>
       </c>
@@ -10746,7 +10983,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:15">
       <c r="D166" t="s">
         <v>386</v>
       </c>
@@ -10784,7 +11021,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:15">
       <c r="D167" t="s">
         <v>386</v>
       </c>
@@ -10822,7 +11059,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:15">
       <c r="D168" t="s">
         <v>386</v>
       </c>
@@ -10860,7 +11097,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:15">
       <c r="D169" t="s">
         <v>386</v>
       </c>
@@ -10898,7 +11135,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:15">
       <c r="D170" t="s">
         <v>386</v>
       </c>
@@ -10936,7 +11173,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:15">
       <c r="D171" t="s">
         <v>386</v>
       </c>
@@ -10974,7 +11211,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:15">
       <c r="D172" t="s">
         <v>386</v>
       </c>
@@ -11012,7 +11249,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:15">
       <c r="D173" t="s">
         <v>386</v>
       </c>
@@ -11050,7 +11287,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:15">
       <c r="D174" t="s">
         <v>386</v>
       </c>
@@ -11088,7 +11325,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:15">
       <c r="D175" t="s">
         <v>386</v>
       </c>
@@ -11126,7 +11363,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:15">
       <c r="D176" t="s">
         <v>386</v>
       </c>
@@ -11164,7 +11401,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:15">
       <c r="D177" t="s">
         <v>386</v>
       </c>
@@ -11202,7 +11439,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="178" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:15">
       <c r="D178" t="s">
         <v>386</v>
       </c>
@@ -11240,7 +11477,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="179" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:15">
       <c r="D179" t="s">
         <v>386</v>
       </c>
@@ -11278,7 +11515,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="180" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:15">
       <c r="D180" t="s">
         <v>386</v>
       </c>
@@ -11316,7 +11553,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="181" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:15">
       <c r="D181" t="s">
         <v>386</v>
       </c>
@@ -11354,7 +11591,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:15">
       <c r="D182" t="s">
         <v>386</v>
       </c>
@@ -11392,7 +11629,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="183" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:15">
       <c r="D183" t="s">
         <v>386</v>
       </c>
@@ -11430,7 +11667,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="184" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:15">
       <c r="D184" t="s">
         <v>386</v>
       </c>
@@ -11468,7 +11705,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="185" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:15">
       <c r="D185" t="s">
         <v>386</v>
       </c>
@@ -11506,7 +11743,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="186" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:15">
       <c r="D186" t="s">
         <v>386</v>
       </c>
@@ -11544,7 +11781,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="187" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:15">
       <c r="D187" t="s">
         <v>386</v>
       </c>
@@ -11582,7 +11819,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="188" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:15">
       <c r="D188" t="s">
         <v>386</v>
       </c>
@@ -11620,7 +11857,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="189" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:15">
       <c r="D189" t="s">
         <v>386</v>
       </c>
@@ -11658,7 +11895,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="190" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:15">
       <c r="D190" t="s">
         <v>386</v>
       </c>
@@ -11696,7 +11933,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="191" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:15">
       <c r="D191" t="s">
         <v>386</v>
       </c>
@@ -11734,7 +11971,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:15">
       <c r="D192" t="s">
         <v>386</v>
       </c>
@@ -11772,7 +12009,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15">
       <c r="D193" t="s">
         <v>386</v>
       </c>
@@ -11807,6 +12044,538 @@
         <v>388</v>
       </c>
       <c r="O193" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15">
+      <c r="E194" s="1"/>
+      <c r="F194" s="9"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="10"/>
+    </row>
+    <row r="195" spans="2:15">
+      <c r="E195" s="1"/>
+      <c r="F195" s="9"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="10"/>
+    </row>
+    <row r="196" spans="2:15">
+      <c r="E196" s="1"/>
+      <c r="F196" s="9"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="10"/>
+    </row>
+    <row r="197" spans="2:15">
+      <c r="E197" s="1"/>
+      <c r="F197" s="9"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="7"/>
+      <c r="O197" s="10"/>
+    </row>
+    <row r="198" spans="2:15">
+      <c r="E198" s="1"/>
+      <c r="F198" s="9"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="7"/>
+      <c r="O198" s="10"/>
+    </row>
+    <row r="199" spans="2:15">
+      <c r="E199" s="1"/>
+      <c r="F199" s="9"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="10"/>
+    </row>
+    <row r="200" spans="2:15">
+      <c r="E200" s="1"/>
+      <c r="F200" s="9"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="7"/>
+      <c r="O200" s="10"/>
+    </row>
+    <row r="201" spans="2:15">
+      <c r="B201" t="s">
+        <v>425</v>
+      </c>
+      <c r="D201" t="s">
+        <v>386</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G201" t="s">
+        <v>384</v>
+      </c>
+      <c r="H201" s="7">
+        <v>1</v>
+      </c>
+      <c r="I201" t="s">
+        <v>384</v>
+      </c>
+      <c r="J201" s="7">
+        <v>10</v>
+      </c>
+      <c r="K201" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L201" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N201" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O201" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15">
+      <c r="B202" t="s">
+        <v>436</v>
+      </c>
+      <c r="D202" t="s">
+        <v>386</v>
+      </c>
+      <c r="E202" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G202" t="s">
+        <v>384</v>
+      </c>
+      <c r="H202" s="7">
+        <v>1</v>
+      </c>
+      <c r="I202" t="s">
+        <v>384</v>
+      </c>
+      <c r="J202" s="7">
+        <v>10</v>
+      </c>
+      <c r="K202" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L202" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N202" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O202" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15">
+      <c r="D203" t="s">
+        <v>386</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G203" t="s">
+        <v>384</v>
+      </c>
+      <c r="H203" s="7">
+        <v>1</v>
+      </c>
+      <c r="I203" t="s">
+        <v>384</v>
+      </c>
+      <c r="J203" s="7">
+        <v>12</v>
+      </c>
+      <c r="K203" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L203" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N203" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O203" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15">
+      <c r="D204" t="s">
+        <v>386</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G204" t="s">
+        <v>384</v>
+      </c>
+      <c r="H204" s="7">
+        <v>1</v>
+      </c>
+      <c r="I204" t="s">
+        <v>384</v>
+      </c>
+      <c r="J204" s="7">
+        <v>12</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L204" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O204" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15">
+      <c r="D205" t="s">
+        <v>386</v>
+      </c>
+      <c r="E205" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G205" t="s">
+        <v>384</v>
+      </c>
+      <c r="H205" s="7">
+        <v>1</v>
+      </c>
+      <c r="I205" t="s">
+        <v>384</v>
+      </c>
+      <c r="J205" s="7">
+        <v>13</v>
+      </c>
+      <c r="K205" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L205" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N205" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O205" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15">
+      <c r="D206" t="s">
+        <v>386</v>
+      </c>
+      <c r="E206" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G206" t="s">
+        <v>384</v>
+      </c>
+      <c r="H206" s="7">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
+        <v>384</v>
+      </c>
+      <c r="J206" s="7">
+        <v>17</v>
+      </c>
+      <c r="K206" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L206" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N206" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O206" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15">
+      <c r="D207" t="s">
+        <v>386</v>
+      </c>
+      <c r="E207" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G207" t="s">
+        <v>384</v>
+      </c>
+      <c r="H207" s="7">
+        <v>2</v>
+      </c>
+      <c r="I207" t="s">
+        <v>384</v>
+      </c>
+      <c r="J207" s="7">
+        <v>10</v>
+      </c>
+      <c r="K207" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L207" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="N207" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O207" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15">
+      <c r="D208" t="s">
+        <v>386</v>
+      </c>
+      <c r="E208" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G208" t="s">
+        <v>384</v>
+      </c>
+      <c r="H208" s="7">
+        <v>2</v>
+      </c>
+      <c r="I208" t="s">
+        <v>384</v>
+      </c>
+      <c r="J208" s="7">
+        <v>10</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L208" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N208" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O208" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="209" spans="4:15">
+      <c r="D209" t="s">
+        <v>386</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G209" t="s">
+        <v>384</v>
+      </c>
+      <c r="H209" s="7">
+        <v>2</v>
+      </c>
+      <c r="I209" t="s">
+        <v>384</v>
+      </c>
+      <c r="J209" s="7">
+        <v>12</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L209" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N209" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O209" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="210" spans="4:15">
+      <c r="D210" t="s">
+        <v>386</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G210" t="s">
+        <v>384</v>
+      </c>
+      <c r="H210" s="7">
+        <v>2</v>
+      </c>
+      <c r="I210" t="s">
+        <v>384</v>
+      </c>
+      <c r="J210" s="7">
+        <v>12</v>
+      </c>
+      <c r="K210" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L210" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N210" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O210" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211" spans="4:15">
+      <c r="D211" t="s">
+        <v>386</v>
+      </c>
+      <c r="E211" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G211" t="s">
+        <v>384</v>
+      </c>
+      <c r="H211" s="7">
+        <v>2</v>
+      </c>
+      <c r="I211" t="s">
+        <v>384</v>
+      </c>
+      <c r="J211" s="7">
+        <v>13</v>
+      </c>
+      <c r="K211" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L211" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N211" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O211" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="212" spans="4:15">
+      <c r="D212" t="s">
+        <v>386</v>
+      </c>
+      <c r="E212" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G212" t="s">
+        <v>384</v>
+      </c>
+      <c r="H212" s="7">
+        <v>2</v>
+      </c>
+      <c r="I212" t="s">
+        <v>384</v>
+      </c>
+      <c r="J212" s="7">
+        <v>17</v>
+      </c>
+      <c r="K212" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L212" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N212" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O212" s="10" t="s">
         <v>387</v>
       </c>
     </row>
@@ -11817,252 +12586,419 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:H19"/>
+  <dimension ref="E3:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:8">
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
         <v>409</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>92</v>
+      <c r="G3" s="1" t="str">
+        <f>E3</f>
+        <v>L_reportar</v>
       </c>
       <c r="H3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:8">
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>409</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>94</v>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ref="G4:G29" si="0">E4</f>
+        <v>L_estado</v>
       </c>
       <c r="H4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:8">
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
         <v>409</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>96</v>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_total_post</v>
       </c>
       <c r="H5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8">
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>409</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>98</v>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Lpuntuacionn</v>
       </c>
       <c r="H6" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8">
       <c r="E7" s="1" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
         <v>409</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>100</v>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_agregar_comentario</v>
       </c>
       <c r="H7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8">
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
         <v>409</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>101</v>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TAcomentario</v>
       </c>
       <c r="H8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8">
       <c r="E9" s="1" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>409</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>68</v>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BagregarComentario</v>
       </c>
       <c r="H9" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:8">
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
         <v>409</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>69</v>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_denunciar_comentario</v>
       </c>
       <c r="H10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:8">
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
         <v>409</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_razon_denuncia</v>
       </c>
       <c r="H11" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:8">
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
         <v>409</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>38</v>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BenviarDenuncia</v>
       </c>
       <c r="H12" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:8">
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
         <v>409</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_cerrrar</v>
       </c>
       <c r="H13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:8">
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
         <v>409</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_denuncia_publicacion</v>
       </c>
       <c r="H14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:8">
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="F15" t="s">
         <v>409</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_razon_denuncia1</v>
       </c>
       <c r="H15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:8">
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
         <v>409</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DDLopcion</v>
       </c>
       <c r="H16" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8">
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>409</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_descripcion</v>
       </c>
       <c r="H17" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8">
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="F18" t="s">
         <v>409</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>79</v>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BdenunciaPost</v>
       </c>
       <c r="H18" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8">
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="F19" t="s">
         <v>409</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_cerrar</v>
       </c>
       <c r="H19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_usuario</v>
+      </c>
+      <c r="H20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TperfilAjustesUsername</v>
+      </c>
+      <c r="H21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>409</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_correo</v>
+      </c>
+      <c r="H22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TperfilAjustesCorreo</v>
+      </c>
+      <c r="H23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_correo_ins</v>
+      </c>
+      <c r="H24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bcorreoins</v>
+      </c>
+      <c r="H25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" t="s">
+        <v>409</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>L_contrasena</v>
+      </c>
+      <c r="H26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TperfilAjustesContrasena</v>
+      </c>
+      <c r="H27" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" t="s">
+        <v>409</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TperfilAjustesContrasena2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" t="s">
+        <v>409</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BajustesGuardar</v>
+      </c>
+      <c r="H29" t="s">
         <v>410</v>
       </c>
     </row>

--- a/Proyecto/listado de  controles-multiidioma-completo.xlsx
+++ b/Proyecto/listado de  controles-multiidioma-completo.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juandavid\Desktop\Ing_de_software\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledua\OneDrive\Documentos\GitHub\Ing_de_software\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C62866C8-4862-410C-8A80-5BF6E7D08193}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5625" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="5625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="444">
   <si>
     <t>admin_index.aspx</t>
   </si>
@@ -1337,12 +1338,33 @@
   </si>
   <si>
     <t>pendiente ingresar</t>
+  </si>
+  <si>
+    <t>Password restored successfully :)</t>
+  </si>
+  <si>
+    <t>Bminiatura_settings</t>
+  </si>
+  <si>
+    <t>Bminiatura_salir</t>
+  </si>
+  <si>
+    <t>Bienvenido</t>
+  </si>
+  <si>
+    <t>L_foro_estudiantes</t>
+  </si>
+  <si>
+    <t>Foro Estudiantes</t>
+  </si>
+  <si>
+    <t>Student's Forum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1357,7 +1379,7 @@
       <name val="Calibri "/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,6 +1407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,7 +1444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1439,6 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1718,11 +1747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4797,6 +4826,214 @@
       <c r="B214" s="1" t="s">
         <v>424</v>
       </c>
+      <c r="C214" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D214" s="7">
+        <v>24</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H214" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="C215" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D215" s="7">
+        <v>24</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H215" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8">
+      <c r="C216" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D216" s="7">
+        <v>24</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H216" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8">
+      <c r="C217" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D217" s="7">
+        <v>24</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H217" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8">
+      <c r="C218" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D218" s="7">
+        <v>24</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H218" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="C219" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D219" s="7">
+        <v>24</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H219" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8">
+      <c r="C220" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D220" s="7">
+        <v>24</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H220" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8">
+      <c r="C221" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D221" s="7">
+        <v>24</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H221" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8">
+      <c r="C222" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D222" s="7">
+        <v>24</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H222" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
+      <c r="C223" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D223" s="7">
+        <v>24</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H223" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="C224" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D224" s="7">
+        <v>24</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H224" s="14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8">
+      <c r="C225" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D225" s="7">
+        <v>24</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H225" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8">
+      <c r="C226" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D226" s="7">
+        <v>24</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H226" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8">
+      <c r="C227" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D227" s="7">
+        <v>24</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H227" s="15" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8">
+      <c r="C228" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D228" s="7">
+        <v>24</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H228" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4805,11 +5042,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="P216" sqref="P216"/>
+    <sheetView topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12009,7 +12246,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="2:15">
+    <row r="193" spans="2:16">
       <c r="D193" t="s">
         <v>386</v>
       </c>
@@ -12047,7 +12284,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="194" spans="2:15">
+    <row r="194" spans="2:16">
       <c r="E194" s="1"/>
       <c r="F194" s="9"/>
       <c r="J194" s="1"/>
@@ -12057,7 +12294,7 @@
       <c r="N194" s="7"/>
       <c r="O194" s="10"/>
     </row>
-    <row r="195" spans="2:15">
+    <row r="195" spans="2:16">
       <c r="E195" s="1"/>
       <c r="F195" s="9"/>
       <c r="J195" s="1"/>
@@ -12067,7 +12304,7 @@
       <c r="N195" s="7"/>
       <c r="O195" s="10"/>
     </row>
-    <row r="196" spans="2:15">
+    <row r="196" spans="2:16">
       <c r="E196" s="1"/>
       <c r="F196" s="9"/>
       <c r="J196" s="1"/>
@@ -12077,7 +12314,7 @@
       <c r="N196" s="7"/>
       <c r="O196" s="10"/>
     </row>
-    <row r="197" spans="2:15">
+    <row r="197" spans="2:16">
       <c r="E197" s="1"/>
       <c r="F197" s="9"/>
       <c r="J197" s="1"/>
@@ -12087,7 +12324,7 @@
       <c r="N197" s="7"/>
       <c r="O197" s="10"/>
     </row>
-    <row r="198" spans="2:15">
+    <row r="198" spans="2:16">
       <c r="E198" s="1"/>
       <c r="F198" s="9"/>
       <c r="J198" s="1"/>
@@ -12097,7 +12334,7 @@
       <c r="N198" s="7"/>
       <c r="O198" s="10"/>
     </row>
-    <row r="199" spans="2:15">
+    <row r="199" spans="2:16">
       <c r="E199" s="1"/>
       <c r="F199" s="9"/>
       <c r="J199" s="1"/>
@@ -12107,7 +12344,7 @@
       <c r="N199" s="7"/>
       <c r="O199" s="10"/>
     </row>
-    <row r="200" spans="2:15">
+    <row r="200" spans="2:16">
       <c r="E200" s="1"/>
       <c r="F200" s="9"/>
       <c r="J200" s="1"/>
@@ -12117,7 +12354,7 @@
       <c r="N200" s="7"/>
       <c r="O200" s="10"/>
     </row>
-    <row r="201" spans="2:15">
+    <row r="201" spans="2:16">
       <c r="B201" t="s">
         <v>425</v>
       </c>
@@ -12157,8 +12394,11 @@
       <c r="O201" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="202" spans="2:15">
+      <c r="P201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:16">
       <c r="B202" t="s">
         <v>436</v>
       </c>
@@ -12198,8 +12438,11 @@
       <c r="O202" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="203" spans="2:15">
+      <c r="P202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="2:16">
       <c r="D203" t="s">
         <v>386</v>
       </c>
@@ -12236,8 +12479,11 @@
       <c r="O203" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="204" spans="2:15">
+      <c r="P203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:16">
       <c r="D204" t="s">
         <v>386</v>
       </c>
@@ -12274,8 +12520,11 @@
       <c r="O204" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="205" spans="2:15">
+      <c r="P204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:16">
       <c r="D205" t="s">
         <v>386</v>
       </c>
@@ -12312,8 +12561,11 @@
       <c r="O205" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="206" spans="2:15">
+      <c r="P205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="2:16">
       <c r="D206" t="s">
         <v>386</v>
       </c>
@@ -12350,8 +12602,11 @@
       <c r="O206" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="207" spans="2:15">
+      <c r="P206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="2:16">
       <c r="D207" t="s">
         <v>386</v>
       </c>
@@ -12388,8 +12643,11 @@
       <c r="O207" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="208" spans="2:15">
+      <c r="P207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:16">
       <c r="D208" t="s">
         <v>386</v>
       </c>
@@ -12418,7 +12676,7 @@
         <v>388</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="N208" s="7" t="s">
         <v>388</v>
@@ -12426,8 +12684,11 @@
       <c r="O208" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="209" spans="4:15">
+      <c r="P208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="4:16">
       <c r="D209" t="s">
         <v>386</v>
       </c>
@@ -12464,8 +12725,11 @@
       <c r="O209" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="210" spans="4:15">
+      <c r="P209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="4:16">
       <c r="D210" t="s">
         <v>386</v>
       </c>
@@ -12502,8 +12766,11 @@
       <c r="O210" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="211" spans="4:15">
+      <c r="P210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="4:16">
       <c r="D211" t="s">
         <v>386</v>
       </c>
@@ -12540,8 +12807,11 @@
       <c r="O211" s="10" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="212" spans="4:15">
+      <c r="P211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="4:16">
       <c r="D212" t="s">
         <v>386</v>
       </c>
@@ -12577,6 +12847,9 @@
       </c>
       <c r="O212" s="10" t="s">
         <v>387</v>
+      </c>
+      <c r="P212">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12585,11 +12858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E3:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
